--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1413,7 +1413,7 @@
       <pane xSplit="10125" ySplit="495" topLeftCell="Z1" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
-      <selection pane="bottomLeft" activeCell="H243" sqref="H243"/>
+      <selection pane="bottomLeft" activeCell="G246" sqref="G246"/>
       <selection pane="bottomRight" activeCell="AE258" sqref="AE258"/>
     </sheetView>
   </sheetViews>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1416,11 +1416,11 @@
   <dimension ref="A1:BC294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="J1" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="AE228" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1:Q1048576"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240:XFD240"/>
-      <selection pane="bottomRight" activeCell="N247" sqref="N247"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="G239" sqref="G239"/>
+      <selection pane="bottomRight" activeCell="Q236" sqref="Q236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19379,6 +19379,9 @@
       <c r="P236" s="5">
         <v>0</v>
       </c>
+      <c r="Q236" s="5">
+        <v>2345</v>
+      </c>
       <c r="R236" s="2" t="s">
         <v>27</v>
       </c>
@@ -19597,6 +19600,9 @@
       </c>
       <c r="P239" s="5">
         <v>0</v>
+      </c>
+      <c r="Q239" s="5">
+        <v>2345</v>
       </c>
       <c r="R239" s="2" t="s">
         <v>27</v>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1416,10 +1416,10 @@
   <dimension ref="A1:BC294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="AE228" activePane="bottomLeft"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="AE1" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="G239" sqref="G239"/>
+      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
       <selection pane="bottomRight" activeCell="Q236" sqref="Q236"/>
     </sheetView>
   </sheetViews>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1416,11 +1416,11 @@
   <dimension ref="A1:BC294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="AE1" activePane="bottomLeft"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="G1" activePane="bottomRight"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
-      <selection pane="bottomRight" activeCell="Q236" sqref="Q236"/>
+      <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
+      <selection pane="bottomRight" activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1412,15 +1412,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:BC294"/>
+  <dimension ref="A1:BC293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="G1" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="N1" activePane="bottomRight"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
       <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
-      <selection pane="bottomRight" activeCell="K243" sqref="K243"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="BB2"/>
       <c r="BC2"/>
     </row>
-    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1782,7 +1781,7 @@
       <c r="BB3"/>
       <c r="BC3"/>
     </row>
-    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1874,7 +1873,7 @@
       <c r="BB4"/>
       <c r="BC4"/>
     </row>
-    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1966,7 +1965,7 @@
       <c r="BB5"/>
       <c r="BC5"/>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1996,7 +1995,7 @@
       <c r="BB6"/>
       <c r="BC6"/>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="BB7"/>
       <c r="BC7"/>
     </row>
-    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2180,7 +2179,7 @@
       <c r="BB8"/>
       <c r="BC8"/>
     </row>
-    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2272,7 +2271,7 @@
       <c r="BB9"/>
       <c r="BC9"/>
     </row>
-    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="BB10"/>
       <c r="BC10"/>
     </row>
-    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="BB11"/>
       <c r="BC11"/>
     </row>
-    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="BB12"/>
       <c r="BC12"/>
     </row>
-    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2570,7 +2569,7 @@
       <c r="BB13"/>
       <c r="BC13"/>
     </row>
-    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2659,7 +2658,7 @@
       <c r="BB14"/>
       <c r="BC14"/>
     </row>
-    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2748,7 +2747,7 @@
       <c r="BB15"/>
       <c r="BC15"/>
     </row>
-    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2837,7 +2836,7 @@
       <c r="BB16"/>
       <c r="BC16"/>
     </row>
-    <row r="17" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2867,7 +2866,7 @@
       <c r="BB17"/>
       <c r="BC17"/>
     </row>
-    <row r="18" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2954,7 +2953,7 @@
       <c r="BB18"/>
       <c r="BC18"/>
     </row>
-    <row r="19" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="BB19"/>
       <c r="BC19"/>
     </row>
-    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3130,7 +3129,7 @@
       <c r="BB20"/>
       <c r="BC20"/>
     </row>
-    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3219,7 +3218,7 @@
       <c r="BB21"/>
       <c r="BC21"/>
     </row>
-    <row r="22" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="BB22"/>
       <c r="BC22"/>
     </row>
-    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3343,7 +3342,7 @@
       <c r="BB23"/>
       <c r="BC23"/>
     </row>
-    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3435,7 +3434,7 @@
       <c r="BB24"/>
       <c r="BC24"/>
     </row>
-    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3522,7 +3521,7 @@
       <c r="BB25"/>
       <c r="BC25"/>
     </row>
-    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="BB26"/>
       <c r="BC26"/>
     </row>
-    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="BB27"/>
       <c r="BC27"/>
     </row>
-    <row r="28" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3733,7 +3732,7 @@
       <c r="BB28"/>
       <c r="BC28"/>
     </row>
-    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3823,7 +3822,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3912,7 +3911,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3997,7 +3996,7 @@
       <c r="BB31"/>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4100,7 +4099,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4171,7 +4170,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4345,7 +4344,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4479,7 +4478,7 @@
       <c r="BB39"/>
       <c r="BC39"/>
     </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4645,7 +4644,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4821,7 +4820,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4909,7 +4908,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5030,7 +5029,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5206,7 +5205,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5294,7 +5293,7 @@
       <c r="BB50"/>
       <c r="BC50"/>
     </row>
-    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5382,7 +5381,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="BB52"/>
       <c r="BC52"/>
     </row>
-    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5503,7 +5502,7 @@
       <c r="BB53"/>
       <c r="BC53"/>
     </row>
-    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5599,7 +5598,7 @@
       <c r="BB54"/>
       <c r="BC54"/>
     </row>
-    <row r="55" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5695,7 +5694,7 @@
       <c r="BB55"/>
       <c r="BC55"/>
     </row>
-    <row r="56" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5789,7 +5788,7 @@
       <c r="BB56"/>
       <c r="BC56"/>
     </row>
-    <row r="57" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5823,7 +5822,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5919,7 +5918,7 @@
       <c r="BB58"/>
       <c r="BC58"/>
     </row>
-    <row r="59" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6015,7 +6014,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6111,7 +6110,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6198,7 +6197,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6230,7 +6229,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6317,7 +6316,7 @@
       <c r="BB63"/>
       <c r="BC63"/>
     </row>
-    <row r="64" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6404,7 +6403,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6493,7 +6492,7 @@
       <c r="BB65"/>
       <c r="BC65"/>
     </row>
-    <row r="66" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6614,7 +6613,7 @@
       <c r="BB67"/>
       <c r="BC67"/>
     </row>
-    <row r="68" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6703,7 +6702,7 @@
       <c r="BB68"/>
       <c r="BC68"/>
     </row>
-    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6792,7 +6791,7 @@
       <c r="BB69"/>
       <c r="BC69"/>
     </row>
-    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6881,7 +6880,7 @@
       <c r="BB70"/>
       <c r="BC70"/>
     </row>
-    <row r="71" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6970,7 +6969,7 @@
       <c r="BB71"/>
       <c r="BC71"/>
     </row>
-    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7002,7 +7001,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7088,7 +7087,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7174,7 +7173,7 @@
       <c r="BB74"/>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7258,7 +7257,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7342,7 +7341,7 @@
       <c r="BB76"/>
       <c r="BC76"/>
     </row>
-    <row r="77" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7376,7 +7375,7 @@
       <c r="BB77"/>
       <c r="BC77"/>
     </row>
-    <row r="78" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7462,7 +7461,7 @@
       <c r="BB78"/>
       <c r="BC78"/>
     </row>
-    <row r="79" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7548,7 +7547,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7630,7 +7629,7 @@
       <c r="BB80"/>
       <c r="BC80"/>
     </row>
-    <row r="81" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7712,7 +7711,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7744,7 +7743,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7829,7 +7828,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7914,7 +7913,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7999,7 +7998,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8084,7 +8083,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8116,7 +8115,7 @@
       <c r="BB87"/>
       <c r="BC87"/>
     </row>
-    <row r="88" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8201,7 +8200,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8286,7 +8285,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8371,7 +8370,7 @@
       <c r="BB90"/>
       <c r="BC90"/>
     </row>
-    <row r="91" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8456,7 +8455,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8488,7 +8487,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8582,7 +8581,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8676,7 +8675,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8771,7 +8770,7 @@
       <c r="BB95"/>
       <c r="BC95"/>
     </row>
-    <row r="96" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8866,7 +8865,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8954,7 +8953,7 @@
       <c r="BB97"/>
       <c r="BC97"/>
     </row>
-    <row r="98" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8984,7 +8983,7 @@
       <c r="BB98"/>
       <c r="BC98"/>
     </row>
-    <row r="99" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9082,7 +9081,7 @@
       <c r="BB99"/>
       <c r="BC99"/>
     </row>
-    <row r="100" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9176,7 +9175,7 @@
       <c r="BB100"/>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9267,7 +9266,7 @@
       <c r="BB101"/>
       <c r="BC101"/>
     </row>
-    <row r="102" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9358,7 +9357,7 @@
       <c r="BB102"/>
       <c r="BC102"/>
     </row>
-    <row r="103" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9446,7 +9445,7 @@
       <c r="BB103"/>
       <c r="BC103"/>
     </row>
-    <row r="104" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9476,7 +9475,7 @@
       <c r="BB104"/>
       <c r="BC104"/>
     </row>
-    <row r="105" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9571,7 +9570,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
     </row>
-    <row r="106" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9666,7 +9665,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9697,7 +9696,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
     </row>
-    <row r="108" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9794,7 +9793,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9888,7 +9887,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
     </row>
-    <row r="110" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9982,7 +9981,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10076,7 +10075,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10106,7 +10105,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -10200,7 +10199,7 @@
       <c r="BB113"/>
       <c r="BC113"/>
     </row>
-    <row r="114" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -10294,7 +10293,7 @@
       <c r="BB114"/>
       <c r="BC114"/>
     </row>
-    <row r="115" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -10385,7 +10384,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -10476,7 +10475,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -10567,7 +10566,7 @@
       <c r="BB117"/>
       <c r="BC117"/>
     </row>
-    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -10597,7 +10596,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -10685,7 +10684,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -10773,7 +10772,7 @@
       <c r="BB120"/>
       <c r="BC120"/>
     </row>
-    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -10861,7 +10860,7 @@
       <c r="BB121"/>
       <c r="BC121"/>
     </row>
-    <row r="122" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -10949,7 +10948,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11034,7 +11033,7 @@
       <c r="BB123"/>
       <c r="BC123"/>
     </row>
-    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11064,7 +11063,7 @@
       <c r="BB124"/>
       <c r="BC124"/>
     </row>
-    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11149,7 +11148,7 @@
       <c r="BB125"/>
       <c r="BC125"/>
     </row>
-    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11234,7 +11233,7 @@
       <c r="BB126"/>
       <c r="BC126"/>
     </row>
-    <row r="127" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11322,7 +11321,7 @@
       <c r="BB127"/>
       <c r="BC127"/>
     </row>
-    <row r="128" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11407,7 +11406,7 @@
       <c r="BB128"/>
       <c r="BC128"/>
     </row>
-    <row r="129" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11495,7 +11494,7 @@
       <c r="BB129"/>
       <c r="BC129"/>
     </row>
-    <row r="130" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -11525,7 +11524,7 @@
       <c r="BB130"/>
       <c r="BC130"/>
     </row>
-    <row r="131" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11619,7 +11618,7 @@
       <c r="BB131"/>
       <c r="BC131"/>
     </row>
-    <row r="132" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11713,7 +11712,7 @@
       <c r="BB132"/>
       <c r="BC132"/>
     </row>
-    <row r="133" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11804,7 +11803,7 @@
       <c r="BB133"/>
       <c r="BC133"/>
     </row>
-    <row r="134" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11895,7 +11894,7 @@
       <c r="BB134"/>
       <c r="BC134"/>
     </row>
-    <row r="135" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11983,7 +11982,7 @@
       <c r="BB135"/>
       <c r="BC135"/>
     </row>
-    <row r="136" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12013,7 +12012,7 @@
       <c r="BB136"/>
       <c r="BC136"/>
     </row>
-    <row r="137" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12104,7 +12103,7 @@
       <c r="BB137"/>
       <c r="BC137"/>
     </row>
-    <row r="138" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12192,7 +12191,7 @@
       <c r="BB138"/>
       <c r="BC138"/>
     </row>
-    <row r="139" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12283,7 +12282,7 @@
       <c r="BB139"/>
       <c r="BC139"/>
     </row>
-    <row r="140" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12374,7 +12373,7 @@
       <c r="BB140"/>
       <c r="BC140"/>
     </row>
-    <row r="141" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12462,7 +12461,7 @@
       <c r="BB141"/>
       <c r="BC141"/>
     </row>
-    <row r="142" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12492,7 +12491,7 @@
       <c r="BB142"/>
       <c r="BC142"/>
     </row>
-    <row r="143" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12583,7 +12582,7 @@
       <c r="BB143"/>
       <c r="BC143"/>
     </row>
-    <row r="144" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12674,7 +12673,7 @@
       <c r="BB144"/>
       <c r="BC144"/>
     </row>
-    <row r="145" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12765,7 +12764,7 @@
       <c r="BB145"/>
       <c r="BC145"/>
     </row>
-    <row r="146" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12856,7 +12855,7 @@
       <c r="BB146"/>
       <c r="BC146"/>
     </row>
-    <row r="147" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12947,7 +12946,7 @@
       <c r="BB147"/>
       <c r="BC147"/>
     </row>
-    <row r="148" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12977,7 +12976,7 @@
       <c r="BB148"/>
       <c r="BC148"/>
     </row>
-    <row r="149" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13068,7 +13067,7 @@
       <c r="BB149"/>
       <c r="BC149"/>
     </row>
-    <row r="150" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13159,7 +13158,7 @@
       <c r="BB150"/>
       <c r="BC150"/>
     </row>
-    <row r="151" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13253,7 +13252,7 @@
       <c r="BB151"/>
       <c r="BC151"/>
     </row>
-    <row r="152" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13344,7 +13343,7 @@
       <c r="BB152"/>
       <c r="BC152"/>
     </row>
-    <row r="153" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13432,7 +13431,7 @@
       <c r="BB153"/>
       <c r="BC153"/>
     </row>
-    <row r="154" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13462,7 +13461,7 @@
       <c r="BB154"/>
       <c r="BC154"/>
     </row>
-    <row r="155" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -13553,7 +13552,7 @@
       <c r="BB155"/>
       <c r="BC155"/>
     </row>
-    <row r="156" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13644,7 +13643,7 @@
       <c r="BB156"/>
       <c r="BC156"/>
     </row>
-    <row r="157" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13735,7 +13734,7 @@
       <c r="BB157"/>
       <c r="BC157"/>
     </row>
-    <row r="158" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13823,7 +13822,7 @@
       <c r="BB158"/>
       <c r="BC158"/>
     </row>
-    <row r="159" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13911,7 +13910,7 @@
       <c r="BB159"/>
       <c r="BC159"/>
     </row>
-    <row r="160" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13941,7 +13940,7 @@
       <c r="BB160"/>
       <c r="BC160"/>
     </row>
-    <row r="161" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14017,7 +14016,7 @@
       <c r="BB161"/>
       <c r="BC161"/>
     </row>
-    <row r="162" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14093,7 +14092,7 @@
       <c r="BB162"/>
       <c r="BC162"/>
     </row>
-    <row r="163" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14166,7 +14165,7 @@
       <c r="BB163"/>
       <c r="BC163"/>
     </row>
-    <row r="164" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14197,7 +14196,7 @@
       <c r="BB164"/>
       <c r="BC164"/>
     </row>
-    <row r="165" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14288,7 +14287,7 @@
       <c r="BB165"/>
       <c r="BC165"/>
     </row>
-    <row r="166" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14379,7 +14378,7 @@
       <c r="BB166"/>
       <c r="BC166"/>
     </row>
-    <row r="167" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -14470,7 +14469,7 @@
       <c r="BB167"/>
       <c r="BC167"/>
     </row>
-    <row r="168" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -14561,7 +14560,7 @@
       <c r="BB168"/>
       <c r="BC168"/>
     </row>
-    <row r="169" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -14649,7 +14648,7 @@
       <c r="BB169"/>
       <c r="BC169"/>
     </row>
-    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -14679,7 +14678,7 @@
       <c r="BB170"/>
       <c r="BC170"/>
     </row>
-    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -14770,7 +14769,7 @@
       <c r="BB171"/>
       <c r="BC171"/>
     </row>
-    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -14861,7 +14860,7 @@
       <c r="BB172"/>
       <c r="BC172"/>
     </row>
-    <row r="173" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -14955,7 +14954,7 @@
       <c r="BB173"/>
       <c r="BC173"/>
     </row>
-    <row r="174" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15046,7 +15045,7 @@
       <c r="BB174"/>
       <c r="BC174"/>
     </row>
-    <row r="175" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15134,7 +15133,7 @@
       <c r="BB175"/>
       <c r="BC175"/>
     </row>
-    <row r="176" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15164,7 +15163,7 @@
       <c r="BB176"/>
       <c r="BC176"/>
     </row>
-    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15255,7 +15254,7 @@
       <c r="BB177"/>
       <c r="BC177"/>
     </row>
-    <row r="178" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15346,7 +15345,7 @@
       <c r="BB178"/>
       <c r="BC178"/>
     </row>
-    <row r="179" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15437,7 +15436,7 @@
       <c r="BB179"/>
       <c r="BC179"/>
     </row>
-    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15528,7 +15527,7 @@
       <c r="BB180"/>
       <c r="BC180"/>
     </row>
-    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -15616,7 +15615,7 @@
       <c r="BB181"/>
       <c r="BC181"/>
     </row>
-    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -15646,7 +15645,7 @@
       <c r="BB182"/>
       <c r="BC182"/>
     </row>
-    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -15737,7 +15736,7 @@
       <c r="BB183"/>
       <c r="BC183"/>
     </row>
-    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -15828,7 +15827,7 @@
       <c r="BB184"/>
       <c r="BC184"/>
     </row>
-    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -15919,7 +15918,7 @@
       <c r="BB185"/>
       <c r="BC185"/>
     </row>
-    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16010,7 +16009,7 @@
       <c r="BB186"/>
       <c r="BC186"/>
     </row>
-    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16098,7 +16097,7 @@
       <c r="BB187"/>
       <c r="BC187"/>
     </row>
-    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16128,7 +16127,7 @@
       <c r="BB188"/>
       <c r="BC188"/>
     </row>
-    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16219,7 +16218,7 @@
       <c r="BB189"/>
       <c r="BC189"/>
     </row>
-    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16310,7 +16309,7 @@
       <c r="BB190"/>
       <c r="BC190"/>
     </row>
-    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16401,7 +16400,7 @@
       <c r="BB191"/>
       <c r="BC191"/>
     </row>
-    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16492,7 +16491,7 @@
       <c r="BB192"/>
       <c r="BC192"/>
     </row>
-    <row r="193" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16580,7 +16579,7 @@
       <c r="BB193"/>
       <c r="BC193"/>
     </row>
-    <row r="194" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16610,7 +16609,7 @@
       <c r="BB194"/>
       <c r="BC194"/>
     </row>
-    <row r="195" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -16701,7 +16700,7 @@
       <c r="BB195"/>
       <c r="BC195"/>
     </row>
-    <row r="196" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -16792,7 +16791,7 @@
       <c r="BB196"/>
       <c r="BC196"/>
     </row>
-    <row r="197" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -16883,7 +16882,7 @@
       <c r="BB197"/>
       <c r="BC197"/>
     </row>
-    <row r="198" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -16974,7 +16973,7 @@
       <c r="BB198"/>
       <c r="BC198"/>
     </row>
-    <row r="199" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17062,7 +17061,7 @@
       <c r="BB199"/>
       <c r="BC199"/>
     </row>
-    <row r="200" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17092,7 +17091,7 @@
       <c r="BB200"/>
       <c r="BC200"/>
     </row>
-    <row r="201" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17183,7 +17182,7 @@
       <c r="BB201"/>
       <c r="BC201"/>
     </row>
-    <row r="202" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17274,7 +17273,7 @@
       <c r="BB202"/>
       <c r="BC202"/>
     </row>
-    <row r="203" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17362,7 +17361,7 @@
       <c r="BB203"/>
       <c r="BC203"/>
     </row>
-    <row r="204" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17450,7 +17449,7 @@
       <c r="BB204"/>
       <c r="BC204"/>
     </row>
-    <row r="205" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17535,7 +17534,7 @@
       <c r="BB205"/>
       <c r="BC205"/>
     </row>
-    <row r="206" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17565,7 +17564,7 @@
       <c r="BB206"/>
       <c r="BC206"/>
     </row>
-    <row r="207" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17659,7 +17658,7 @@
       <c r="BB207"/>
       <c r="BC207"/>
     </row>
-    <row r="208" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -17753,7 +17752,7 @@
       <c r="BB208"/>
       <c r="BC208"/>
     </row>
-    <row r="209" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -17844,7 +17843,7 @@
       <c r="BB209"/>
       <c r="BC209"/>
     </row>
-    <row r="210" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -17935,7 +17934,7 @@
       <c r="BB210"/>
       <c r="BC210"/>
     </row>
-    <row r="211" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18023,7 +18022,7 @@
       <c r="BB211"/>
       <c r="BC211"/>
     </row>
-    <row r="212" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18046,7 +18045,7 @@
       <c r="BB212"/>
       <c r="BC212"/>
     </row>
-    <row r="213" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18112,7 +18111,7 @@
       <c r="AX213"/>
       <c r="AY213"/>
     </row>
-    <row r="214" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18178,7 +18177,7 @@
       <c r="AX214"/>
       <c r="AY214"/>
     </row>
-    <row r="215" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18194,7 +18193,7 @@
       <c r="AY215"/>
       <c r="AZ215"/>
     </row>
-    <row r="216" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18330,7 +18329,7 @@
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
     </row>
-    <row r="219" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18385,7 +18384,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18440,7 +18439,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18454,7 +18453,7 @@
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
     </row>
-    <row r="222" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -18521,7 +18520,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="223" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="224" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -18593,7 +18592,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -18659,7 +18658,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="226" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="227" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -18795,7 +18794,9 @@
       </c>
       <c r="R228" s="6"/>
       <c r="S228" s="6"/>
-      <c r="T228" s="6"/>
+      <c r="T228" s="6">
+        <v>1</v>
+      </c>
       <c r="U228" s="1"/>
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
@@ -18881,7 +18882,9 @@
       </c>
       <c r="R229" s="6"/>
       <c r="S229" s="6"/>
-      <c r="T229" s="6"/>
+      <c r="T229" s="6">
+        <v>1</v>
+      </c>
       <c r="U229" s="1"/>
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
@@ -19019,7 +19022,7 @@
       </c>
       <c r="S231" s="2"/>
       <c r="T231" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U231" s="2">
         <v>1</v>
@@ -19110,7 +19113,7 @@
       </c>
       <c r="S232" s="2"/>
       <c r="T232" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U232" s="2">
         <v>1</v>
@@ -19196,7 +19199,7 @@
       </c>
       <c r="S233" s="2"/>
       <c r="T233" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U233" s="2">
         <v>1</v>
@@ -19288,7 +19291,7 @@
       </c>
       <c r="S234" s="2"/>
       <c r="T234" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U234" s="2">
         <v>1</v>
@@ -19385,6 +19388,9 @@
       <c r="R236" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T236" s="5">
+        <v>1</v>
+      </c>
       <c r="X236" s="2">
         <v>1.2</v>
       </c>
@@ -19458,6 +19464,9 @@
       <c r="R237" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T237" s="5">
+        <v>1</v>
+      </c>
       <c r="X237" s="2">
         <v>1.2</v>
       </c>
@@ -19531,6 +19540,9 @@
       <c r="R238" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T238" s="5">
+        <v>1</v>
+      </c>
       <c r="X238" s="2">
         <v>1.2</v>
       </c>
@@ -19607,6 +19619,9 @@
       <c r="R239" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T239" s="5">
+        <v>1</v>
+      </c>
       <c r="X239" s="2">
         <v>1.2</v>
       </c>
@@ -19680,6 +19695,9 @@
       <c r="R240" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T240" s="5">
+        <v>1</v>
+      </c>
       <c r="X240" s="2">
         <v>1.2</v>
       </c>
@@ -19766,6 +19784,9 @@
       <c r="R242" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T242" s="5">
+        <v>1</v>
+      </c>
       <c r="X242" s="2">
         <v>1.2</v>
       </c>
@@ -19831,6 +19852,9 @@
       <c r="R243" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T243" s="5">
+        <v>1</v>
+      </c>
       <c r="X243" s="2">
         <v>1.2</v>
       </c>
@@ -19899,6 +19923,9 @@
       <c r="R244" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T244" s="5">
+        <v>1</v>
+      </c>
       <c r="X244" s="2">
         <v>1.2</v>
       </c>
@@ -19967,6 +19994,9 @@
       <c r="R245" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T245" s="5">
+        <v>1</v>
+      </c>
       <c r="X245" s="2">
         <v>1.2</v>
       </c>
@@ -20035,6 +20065,9 @@
       <c r="R246" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T246" s="5">
+        <v>1</v>
+      </c>
       <c r="X246" s="2">
         <v>1.2</v>
       </c>
@@ -20103,6 +20136,9 @@
       <c r="R247" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T247" s="5">
+        <v>1</v>
+      </c>
       <c r="X247" s="2">
         <v>1.2</v>
       </c>
@@ -20171,6 +20207,9 @@
       <c r="R248" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T248" s="5">
+        <v>1</v>
+      </c>
       <c r="X248" s="2">
         <v>1.2</v>
       </c>
@@ -20246,6 +20285,9 @@
       </c>
       <c r="R250" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="T250" s="5">
+        <v>1</v>
       </c>
       <c r="X250" s="2">
         <v>1.2</v>
@@ -20320,6 +20362,9 @@
       <c r="R251" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T251" s="5">
+        <v>1</v>
+      </c>
       <c r="X251" s="2">
         <v>1.2</v>
       </c>
@@ -20390,6 +20435,9 @@
       <c r="R252" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T252" s="5">
+        <v>1</v>
+      </c>
       <c r="X252" s="2">
         <v>1.2</v>
       </c>
@@ -20463,6 +20511,9 @@
       <c r="R253" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T253" s="5">
+        <v>1</v>
+      </c>
       <c r="X253" s="2">
         <v>1.2</v>
       </c>
@@ -20533,6 +20584,9 @@
       <c r="R254" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T254" s="5">
+        <v>1</v>
+      </c>
       <c r="X254" s="2">
         <v>1.2</v>
       </c>
@@ -20691,6 +20745,9 @@
       <c r="R257" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T257" s="5">
+        <v>1</v>
+      </c>
       <c r="X257" s="2">
         <v>1.2</v>
       </c>
@@ -20756,6 +20813,9 @@
       <c r="R258" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T258" s="5">
+        <v>1</v>
+      </c>
       <c r="X258" s="2">
         <v>1.2</v>
       </c>
@@ -20824,6 +20884,9 @@
       <c r="R259" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T259" s="5">
+        <v>1</v>
+      </c>
       <c r="X259" s="2">
         <v>1.2</v>
       </c>
@@ -20889,6 +20952,9 @@
       <c r="R260" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T260" s="5">
+        <v>1</v>
+      </c>
       <c r="X260" s="2">
         <v>1.2</v>
       </c>
@@ -20967,7 +21033,7 @@
       </c>
       <c r="S262" s="2"/>
       <c r="T262" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U262" s="2">
         <v>1</v>
@@ -21051,6 +21117,9 @@
       <c r="R263" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T263" s="5">
+        <v>3</v>
+      </c>
       <c r="X263" s="2">
         <v>1.2</v>
       </c>
@@ -21113,6 +21182,9 @@
       <c r="R264" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T264" s="5">
+        <v>3</v>
+      </c>
       <c r="X264" s="2">
         <v>1.2</v>
       </c>
@@ -21178,6 +21250,9 @@
       <c r="R265" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T265" s="5">
+        <v>3</v>
+      </c>
       <c r="X265" s="2">
         <v>1.2</v>
       </c>
@@ -21241,6 +21316,9 @@
       <c r="R266" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T266" s="5">
+        <v>3</v>
+      </c>
       <c r="X266" s="2">
         <v>1.2</v>
       </c>
@@ -21311,6 +21389,9 @@
       <c r="R268" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T268" s="5">
+        <v>1</v>
+      </c>
       <c r="X268" s="2">
         <v>1.2</v>
       </c>
@@ -21376,6 +21457,9 @@
       <c r="R269" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T269" s="5">
+        <v>1</v>
+      </c>
       <c r="X269" s="2">
         <v>1.2</v>
       </c>
@@ -21438,6 +21522,9 @@
       <c r="R270" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T270" s="5">
+        <v>1</v>
+      </c>
       <c r="X270" s="2">
         <v>1.2</v>
       </c>
@@ -21503,6 +21590,9 @@
       <c r="R271" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T271" s="5">
+        <v>1</v>
+      </c>
       <c r="X271" s="2">
         <v>1.2</v>
       </c>
@@ -21565,6 +21655,9 @@
       <c r="R272" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="T272" s="5">
+        <v>1</v>
+      </c>
       <c r="X272" s="2">
         <v>1.2</v>
       </c>
@@ -21589,7 +21682,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="274" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -21656,7 +21749,7 @@
       <c r="AM274" s="3"/>
       <c r="AR274" s="2"/>
     </row>
-    <row r="275" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -21723,7 +21816,7 @@
       <c r="AM275" s="3"/>
       <c r="AR275" s="2"/>
     </row>
-    <row r="276" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -21784,7 +21877,7 @@
       <c r="AM276" s="3"/>
       <c r="AR276" s="2"/>
     </row>
-    <row r="277" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -21793,7 +21886,7 @@
       </c>
       <c r="AR277" s="2"/>
     </row>
-    <row r="278" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -21854,7 +21947,7 @@
       <c r="AM278" s="3"/>
       <c r="AR278" s="2"/>
     </row>
-    <row r="279" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -21918,7 +22011,7 @@
       <c r="AM279" s="3"/>
       <c r="AR279" s="2"/>
     </row>
-    <row r="280" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -21982,7 +22075,7 @@
       <c r="AM280" s="3"/>
       <c r="AR280" s="2"/>
     </row>
-    <row r="281" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -22043,7 +22136,7 @@
       <c r="AM281" s="3"/>
       <c r="AR281" s="2"/>
     </row>
-    <row r="282" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -22063,10 +22156,7 @@
       <c r="Z282" s="5"/>
       <c r="AR282" s="2"/>
     </row>
-    <row r="283" spans="1:55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:55" x14ac:dyDescent="0.25">
       <c r="K286" s="5"/>
       <c r="L286" s="2"/>
       <c r="U286" s="5"/>
@@ -22083,7 +22173,7 @@
       <c r="BB286"/>
       <c r="BC286"/>
     </row>
-    <row r="287" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
@@ -22097,7 +22187,7 @@
       <c r="Z287" s="5"/>
       <c r="AR287" s="2"/>
     </row>
-    <row r="288" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:55" x14ac:dyDescent="0.25">
       <c r="K288" s="5"/>
       <c r="M288" s="2"/>
       <c r="U288" s="5"/>
@@ -22106,7 +22196,7 @@
       <c r="X288" s="5"/>
       <c r="AR288" s="2"/>
     </row>
-    <row r="289" spans="11:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K289" s="5"/>
       <c r="M289" s="2"/>
       <c r="U289" s="5"/>
@@ -22116,40 +22206,33 @@
       <c r="Y289" s="5"/>
       <c r="AR289" s="2"/>
     </row>
-    <row r="290" spans="11:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K290" s="5"/>
       <c r="M290" s="2"/>
       <c r="U290" s="5"/>
       <c r="V290" s="5"/>
       <c r="AR290" s="2"/>
     </row>
-    <row r="291" spans="11:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K291" s="5"/>
       <c r="L291" s="2"/>
       <c r="U291" s="5"/>
       <c r="AR291" s="2"/>
     </row>
-    <row r="292" spans="11:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K292" s="5"/>
       <c r="L292" s="2"/>
       <c r="U292" s="5"/>
       <c r="AR292" s="2"/>
     </row>
-    <row r="293" spans="11:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K293" s="5"/>
       <c r="L293" s="2"/>
       <c r="U293" s="5"/>
       <c r="AR293" s="2"/>
     </row>
-    <row r="294" spans="11:44" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BC294">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="dream"/>
-        <filter val="dream_bl"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:BA294">
       <sortCondition ref="A1:A294"/>
     </sortState>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BH$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BH$347</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="350">
   <si>
     <t>experiment</t>
   </si>
@@ -1057,6 +1057,27 @@
   </si>
   <si>
     <t>AC_rest_stim3</t>
+  </si>
+  <si>
+    <t>6_11_22b</t>
+  </si>
+  <si>
+    <t>M142</t>
+  </si>
+  <si>
+    <t>AC_cont_41</t>
+  </si>
+  <si>
+    <t>6_20_22</t>
+  </si>
+  <si>
+    <t>M166</t>
+  </si>
+  <si>
+    <t>seems like z movement after im2, ~25um up, stim targeting messed up</t>
+  </si>
+  <si>
+    <t>6_20_22_pt2</t>
   </si>
 </sst>
 </file>
@@ -1503,14 +1524,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH327"/>
+  <dimension ref="A1:BH355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="H277" activePane="bottomLeft"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="Q287" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
-      <selection pane="bottomRight" activeCell="K300" sqref="K300"/>
+      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="E298" sqref="E298"/>
+      <selection pane="bottomRight" activeCell="S306" sqref="S306:U311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25116,7 +25137,7 @@
       <c r="D279" s="2">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F279" s="5" t="s">
@@ -26641,638 +26662,1983 @@
         <v>511</v>
       </c>
     </row>
-    <row r="305" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="G305" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="306" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="W305" s="2"/>
+    </row>
+    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="D306" s="2">
         <v>1</v>
       </c>
-      <c r="E306" s="4" t="s">
-        <v>317</v>
+      <c r="E306" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H306" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H306" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I306" s="2">
+      <c r="I306" s="5">
         <v>1</v>
       </c>
       <c r="K306" s="2">
-        <v>1</v>
-      </c>
-      <c r="L306" s="2">
+        <v>0</v>
+      </c>
+      <c r="L306" s="5">
         <v>5</v>
       </c>
-      <c r="M306" s="2">
-        <v>1</v>
-      </c>
-      <c r="N306" s="2"/>
+      <c r="M306" s="5">
+        <v>1</v>
+      </c>
+      <c r="N306" s="5">
+        <v>1</v>
+      </c>
+      <c r="O306" s="5">
+        <v>1</v>
+      </c>
+      <c r="P306" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="5">
+        <v>1</v>
+      </c>
+      <c r="S306" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U306" s="5">
+        <v>56</v>
+      </c>
+      <c r="V306" s="5">
+        <v>1</v>
+      </c>
       <c r="W306" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X306" s="2"/>
-      <c r="Y306" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z306" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA306" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB306" s="2">
-        <v>100</v>
+      <c r="Y306" s="5">
+        <v>1</v>
       </c>
       <c r="AC306" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD306" s="2">
-        <v>511</v>
-      </c>
-      <c r="AE306" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG306" s="2">
-        <v>484</v>
-      </c>
-      <c r="AL306" s="3"/>
-      <c r="AR306" s="3"/>
-      <c r="AW306" s="2"/>
-    </row>
-    <row r="307" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="D307" s="2">
-        <v>3</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>318</v>
+        <v>2</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H307" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I307" s="2">
+        <v>94</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I307" s="5">
         <v>1</v>
       </c>
       <c r="K307" s="2">
-        <v>1</v>
-      </c>
-      <c r="L307" s="2">
+        <v>0</v>
+      </c>
+      <c r="L307" s="5">
         <v>5</v>
       </c>
-      <c r="M307" s="2">
-        <v>1</v>
-      </c>
-      <c r="N307" s="2"/>
+      <c r="M307" s="5">
+        <v>1</v>
+      </c>
+      <c r="N307" s="5">
+        <v>1</v>
+      </c>
+      <c r="O307" s="5">
+        <v>1</v>
+      </c>
+      <c r="P307" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="5">
+        <v>1</v>
+      </c>
+      <c r="R307" s="5">
+        <v>0</v>
+      </c>
+      <c r="S307" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U307" s="5">
+        <v>56</v>
+      </c>
+      <c r="V307" s="5">
+        <v>1</v>
+      </c>
       <c r="W307" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X307" s="2"/>
-      <c r="Y307" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z307" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA307" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB307" s="2">
-        <v>100</v>
+      <c r="Y307" s="5">
+        <v>1</v>
       </c>
       <c r="AC307" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD307" s="2">
-        <v>511</v>
-      </c>
-      <c r="AE307" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG307" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL307" s="3"/>
-      <c r="AR307" s="3"/>
-      <c r="AW307" s="2"/>
-    </row>
-    <row r="308" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="D308" s="2">
-        <v>4</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>319</v>
+        <v>3</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I308" s="2">
+        <v>94</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I308" s="5">
         <v>1</v>
       </c>
       <c r="K308" s="2">
-        <v>1</v>
-      </c>
-      <c r="L308" s="2">
+        <v>0</v>
+      </c>
+      <c r="L308" s="5">
         <v>5</v>
       </c>
-      <c r="M308" s="2">
-        <v>1</v>
-      </c>
-      <c r="N308" s="2"/>
+      <c r="M308" s="5">
+        <v>1</v>
+      </c>
+      <c r="N308" s="5">
+        <v>0</v>
+      </c>
+      <c r="O308" s="5">
+        <v>1</v>
+      </c>
+      <c r="P308" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="5">
+        <v>1</v>
+      </c>
+      <c r="S308" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U308" s="5">
+        <v>56</v>
+      </c>
+      <c r="V308" s="5">
+        <v>0</v>
+      </c>
       <c r="W308" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X308" s="2"/>
-      <c r="Y308" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z308" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA308" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB308" s="2">
-        <v>100</v>
+      <c r="Y308" s="5">
+        <v>1</v>
       </c>
       <c r="AC308" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD308" s="2">
-        <v>511</v>
-      </c>
-      <c r="AL308" s="3"/>
-      <c r="AR308" s="3"/>
-      <c r="AW308" s="2"/>
-    </row>
-    <row r="309" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
+      <c r="B309" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D309" s="2">
+        <v>4</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G309" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW309" s="2"/>
-    </row>
-    <row r="310" spans="1:60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I309" s="5">
+        <v>1</v>
+      </c>
+      <c r="K309" s="2">
+        <v>0</v>
+      </c>
+      <c r="L309" s="5">
+        <v>5</v>
+      </c>
+      <c r="M309" s="5">
+        <v>1</v>
+      </c>
+      <c r="N309" s="5">
+        <v>1</v>
+      </c>
+      <c r="O309" s="5">
+        <v>1</v>
+      </c>
+      <c r="P309" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="5">
+        <v>1</v>
+      </c>
+      <c r="S309" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U309" s="5">
+        <v>56</v>
+      </c>
+      <c r="V309" s="5">
+        <v>1</v>
+      </c>
+      <c r="W309" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y309" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC309" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="D310" s="2">
-        <v>1</v>
-      </c>
-      <c r="E310" s="5" t="s">
-        <v>319</v>
+        <v>5</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I310" s="2">
+        <v>94</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I310" s="5">
         <v>1</v>
       </c>
       <c r="K310" s="2">
-        <v>1</v>
-      </c>
-      <c r="L310" s="2">
+        <v>0</v>
+      </c>
+      <c r="L310" s="5">
         <v>5</v>
       </c>
-      <c r="M310" s="2">
-        <v>1</v>
-      </c>
-      <c r="N310" s="2"/>
+      <c r="M310" s="5">
+        <v>1</v>
+      </c>
+      <c r="N310" s="5">
+        <v>0</v>
+      </c>
+      <c r="O310" s="5">
+        <v>1</v>
+      </c>
+      <c r="P310" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q310" s="5">
+        <v>1</v>
+      </c>
+      <c r="S310" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U310" s="5">
+        <v>56</v>
+      </c>
+      <c r="V310" s="5">
+        <v>0</v>
+      </c>
       <c r="W310" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X310" s="2"/>
-      <c r="Y310" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z310" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA310" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB310" s="2">
-        <v>100</v>
+      <c r="Y310" s="5">
+        <v>1</v>
       </c>
       <c r="AC310" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD310" s="2">
-        <v>511</v>
-      </c>
-      <c r="AL310" s="3"/>
-      <c r="AR310" s="3"/>
-      <c r="AW310" s="2"/>
-    </row>
-    <row r="311" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="D311" s="2">
-        <v>2</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>318</v>
+        <v>6</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H311" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I311" s="2">
+        <v>94</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I311" s="5">
         <v>1</v>
       </c>
       <c r="K311" s="2">
-        <v>1</v>
-      </c>
-      <c r="L311" s="2">
+        <v>0</v>
+      </c>
+      <c r="L311" s="5">
         <v>5</v>
       </c>
-      <c r="M311" s="2">
-        <v>1</v>
-      </c>
-      <c r="N311" s="2"/>
+      <c r="M311" s="5">
+        <v>1</v>
+      </c>
+      <c r="N311" s="5">
+        <v>1</v>
+      </c>
+      <c r="O311" s="5">
+        <v>1</v>
+      </c>
+      <c r="P311" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q311" s="5">
+        <v>1</v>
+      </c>
+      <c r="S311" s="5">
+        <v>1234</v>
+      </c>
+      <c r="U311" s="5">
+        <v>56</v>
+      </c>
+      <c r="V311" s="5">
+        <v>1</v>
+      </c>
       <c r="W311" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X311" s="2"/>
-      <c r="Y311" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z311" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA311" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB311" s="2">
-        <v>100</v>
+      <c r="Y311" s="5">
+        <v>1</v>
       </c>
       <c r="AC311" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD311" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG311" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL311" s="3"/>
-      <c r="AR311" s="3"/>
-      <c r="AW311" s="2"/>
-    </row>
-    <row r="312" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D312" s="2">
-        <v>3</v>
-      </c>
-      <c r="E312" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F312" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G312" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I312" s="2">
-        <v>1</v>
-      </c>
-      <c r="K312" s="2">
-        <v>1</v>
-      </c>
-      <c r="L312" s="2">
-        <v>5</v>
-      </c>
-      <c r="M312" s="2">
-        <v>1</v>
-      </c>
-      <c r="N312" s="2"/>
-      <c r="W312" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X312" s="2"/>
-      <c r="Y312" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z312" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA312" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB312" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC312" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AD312" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG312" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL312" s="3"/>
-      <c r="AR312" s="3"/>
-      <c r="AW312" s="2"/>
-    </row>
-    <row r="313" spans="1:60" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D313" s="2">
-        <v>4</v>
-      </c>
-      <c r="E313" s="5" t="s">
-        <v>317</v>
+        <v>1</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H313" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I313" s="2">
+        <v>94</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I313" s="5">
         <v>1</v>
       </c>
       <c r="K313" s="2">
-        <v>1</v>
-      </c>
-      <c r="L313" s="2">
+        <v>0</v>
+      </c>
+      <c r="L313" s="5">
         <v>5</v>
       </c>
-      <c r="M313" s="2">
-        <v>1</v>
-      </c>
-      <c r="N313" s="2"/>
+      <c r="M313" s="5">
+        <v>1</v>
+      </c>
+      <c r="N313" s="5">
+        <v>1</v>
+      </c>
+      <c r="O313" s="5">
+        <v>1</v>
+      </c>
+      <c r="P313" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="5">
+        <v>1</v>
+      </c>
+      <c r="S313" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T313" s="5">
+        <v>12</v>
+      </c>
+      <c r="U313" s="5">
+        <v>78</v>
+      </c>
+      <c r="V313" s="5">
+        <v>1</v>
+      </c>
       <c r="W313" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X313" s="2"/>
-      <c r="Y313" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z313" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA313" s="2">
-        <v>2</v>
+      <c r="Y313" s="5">
+        <v>1</v>
       </c>
       <c r="AB313" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AC313" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD313" s="2">
-        <v>511</v>
-      </c>
-      <c r="AL313" s="3"/>
-      <c r="AR313" s="3"/>
-      <c r="AW313" s="2"/>
-    </row>
-    <row r="314" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="F314" s="2"/>
+      <c r="B314" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D314" s="2">
+        <v>2</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G314" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-      <c r="K314" s="5"/>
-      <c r="X314" s="2"/>
-      <c r="Z314" s="5"/>
-      <c r="AA314" s="5"/>
-      <c r="AB314" s="5"/>
-      <c r="AC314" s="5"/>
-      <c r="AD314" s="5"/>
-      <c r="AE314" s="5"/>
-      <c r="AW314" s="2"/>
-    </row>
-    <row r="315" spans="1:60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I314" s="5">
+        <v>1</v>
+      </c>
+      <c r="K314" s="2">
+        <v>0</v>
+      </c>
+      <c r="L314" s="5">
+        <v>5</v>
+      </c>
+      <c r="M314" s="5">
+        <v>1</v>
+      </c>
+      <c r="N314" s="5">
+        <v>1</v>
+      </c>
+      <c r="O314" s="5">
+        <v>1</v>
+      </c>
+      <c r="P314" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="5">
+        <v>1</v>
+      </c>
+      <c r="S314" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T314" s="5">
+        <v>12</v>
+      </c>
+      <c r="U314" s="5">
+        <v>78</v>
+      </c>
+      <c r="V314" s="5">
+        <v>1</v>
+      </c>
+      <c r="W314" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y314" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB314" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC314" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B315" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D315" s="2">
+        <v>3</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I315" s="5">
+        <v>1</v>
+      </c>
+      <c r="K315" s="2">
+        <v>0</v>
+      </c>
+      <c r="L315" s="5">
+        <v>5</v>
+      </c>
+      <c r="M315" s="5">
+        <v>1</v>
+      </c>
+      <c r="N315" s="5">
+        <v>0</v>
+      </c>
+      <c r="O315" s="5">
+        <v>1</v>
+      </c>
+      <c r="P315" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="5">
+        <v>3</v>
+      </c>
+      <c r="S315" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T315" s="5">
+        <v>12</v>
+      </c>
+      <c r="U315" s="5">
+        <v>78</v>
+      </c>
+      <c r="V315" s="5">
+        <v>0</v>
+      </c>
+      <c r="W315" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y315" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB315" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC315" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AL315" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B316" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D316" s="2">
+        <v>4</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I316" s="5">
+        <v>1</v>
+      </c>
+      <c r="K316" s="2">
+        <v>0</v>
+      </c>
+      <c r="L316" s="5">
+        <v>5</v>
+      </c>
+      <c r="M316" s="5">
+        <v>1</v>
+      </c>
+      <c r="N316" s="5">
+        <v>1</v>
+      </c>
+      <c r="O316" s="5">
+        <v>1</v>
+      </c>
+      <c r="P316" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="5">
+        <v>3</v>
+      </c>
+      <c r="S316" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T316" s="5">
+        <v>12</v>
+      </c>
+      <c r="U316" s="5">
+        <v>78</v>
+      </c>
+      <c r="V316" s="5">
+        <v>1</v>
+      </c>
+      <c r="W316" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y316" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB316" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC316" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B317" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D317" s="2">
+        <v>5</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I317" s="5">
+        <v>1</v>
+      </c>
+      <c r="K317" s="2">
+        <v>0</v>
+      </c>
+      <c r="L317" s="5">
+        <v>5</v>
+      </c>
+      <c r="M317" s="5">
+        <v>1</v>
+      </c>
+      <c r="N317" s="5">
+        <v>0</v>
+      </c>
+      <c r="O317" s="5">
+        <v>1</v>
+      </c>
+      <c r="P317" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q317" s="5">
+        <v>3</v>
+      </c>
+      <c r="S317" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T317" s="5">
+        <v>12</v>
+      </c>
+      <c r="U317" s="5">
+        <v>78</v>
+      </c>
+      <c r="V317" s="5">
+        <v>0</v>
+      </c>
+      <c r="W317" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y317" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB317" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC317" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="K318" s="5"/>
-      <c r="L318" s="2"/>
-      <c r="Z318" s="5"/>
-      <c r="AA318" s="5"/>
-      <c r="AB318" s="5"/>
-      <c r="AW318" s="2"/>
-      <c r="AX318" s="2"/>
-      <c r="AY318" s="2"/>
-      <c r="AZ318" s="2"/>
-      <c r="BA318" s="2"/>
-      <c r="BD318"/>
-      <c r="BE318"/>
-      <c r="BF318"/>
-      <c r="BG318"/>
-      <c r="BH318"/>
-    </row>
-    <row r="319" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B318" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D318" s="2">
+        <v>6</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I318" s="5">
+        <v>1</v>
+      </c>
+      <c r="K318" s="2">
+        <v>0</v>
+      </c>
+      <c r="L318" s="5">
+        <v>5</v>
+      </c>
+      <c r="M318" s="5">
+        <v>1</v>
+      </c>
+      <c r="N318" s="5">
+        <v>1</v>
+      </c>
+      <c r="O318" s="5">
+        <v>1</v>
+      </c>
+      <c r="P318" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q318" s="5">
+        <v>3</v>
+      </c>
+      <c r="S318" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T318" s="5">
+        <v>12</v>
+      </c>
+      <c r="U318" s="5">
+        <v>78</v>
+      </c>
+      <c r="V318" s="5">
+        <v>1</v>
+      </c>
+      <c r="W318" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y318" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB318" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC318" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="F319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-      <c r="K319" s="5"/>
-      <c r="X319" s="2"/>
-      <c r="Z319" s="5"/>
-      <c r="AA319" s="5"/>
-      <c r="AB319" s="5"/>
-      <c r="AC319" s="5"/>
-      <c r="AD319" s="5"/>
-      <c r="AE319" s="5"/>
-      <c r="AW319" s="2"/>
-    </row>
-    <row r="320" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="G319" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="W319" s="2"/>
+    </row>
+    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="K320" s="5"/>
-      <c r="M320" s="2"/>
-      <c r="N320" s="2"/>
-      <c r="Z320" s="5"/>
-      <c r="AA320" s="5"/>
-      <c r="AB320" s="5"/>
-      <c r="AC320" s="5"/>
-      <c r="AW320" s="2"/>
+      <c r="B320" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D320" s="2">
+        <v>7</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I320" s="5">
+        <v>1</v>
+      </c>
+      <c r="L320" s="5">
+        <v>5</v>
+      </c>
+      <c r="M320" s="5">
+        <v>1</v>
+      </c>
+      <c r="N320" s="5">
+        <v>1</v>
+      </c>
+      <c r="O320" s="5">
+        <v>1</v>
+      </c>
+      <c r="P320" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="5">
+        <v>8</v>
+      </c>
+      <c r="S320" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T320" s="5">
+        <v>12</v>
+      </c>
+      <c r="U320" s="5">
+        <v>78</v>
+      </c>
+      <c r="V320" s="5">
+        <v>1</v>
+      </c>
+      <c r="W320" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y320" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB320" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC320" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="321" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="K321" s="5"/>
-      <c r="M321" s="2"/>
-      <c r="N321" s="2"/>
-      <c r="Z321" s="5"/>
-      <c r="AA321" s="5"/>
-      <c r="AB321" s="5"/>
-      <c r="AC321" s="5"/>
-      <c r="AD321" s="5"/>
-      <c r="AW321" s="2"/>
+      <c r="B321" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D321" s="2">
+        <v>8</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H321" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I321" s="5">
+        <v>1</v>
+      </c>
+      <c r="L321" s="5">
+        <v>5</v>
+      </c>
+      <c r="M321" s="5">
+        <v>1</v>
+      </c>
+      <c r="N321" s="5">
+        <v>1</v>
+      </c>
+      <c r="O321" s="5">
+        <v>1</v>
+      </c>
+      <c r="P321" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q321" s="5">
+        <v>8</v>
+      </c>
+      <c r="S321" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T321" s="5">
+        <v>12</v>
+      </c>
+      <c r="U321" s="5">
+        <v>78</v>
+      </c>
+      <c r="V321" s="5">
+        <v>1</v>
+      </c>
+      <c r="W321" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y321" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB321" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC321" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="322" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="K322" s="5"/>
-      <c r="M322" s="2"/>
-      <c r="N322" s="2"/>
-      <c r="Z322" s="5"/>
-      <c r="AA322" s="5"/>
-      <c r="AW322" s="2"/>
+      <c r="B322" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D322" s="2">
+        <v>9</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I322" s="5">
+        <v>1</v>
+      </c>
+      <c r="L322" s="5">
+        <v>5</v>
+      </c>
+      <c r="M322" s="5">
+        <v>1</v>
+      </c>
+      <c r="N322" s="5">
+        <v>0</v>
+      </c>
+      <c r="O322" s="5">
+        <v>1</v>
+      </c>
+      <c r="P322" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="5">
+        <v>8</v>
+      </c>
+      <c r="S322" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T322" s="5">
+        <v>12</v>
+      </c>
+      <c r="U322" s="5">
+        <v>78</v>
+      </c>
+      <c r="V322" s="5">
+        <v>0</v>
+      </c>
+      <c r="W322" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y322" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB322" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC322" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="323" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="K323" s="5"/>
-      <c r="L323" s="2"/>
-      <c r="Z323" s="5"/>
-      <c r="AW323" s="2"/>
+      <c r="B323" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D323" s="2">
+        <v>10</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I323" s="5">
+        <v>1</v>
+      </c>
+      <c r="L323" s="5">
+        <v>5</v>
+      </c>
+      <c r="M323" s="5">
+        <v>1</v>
+      </c>
+      <c r="N323" s="5">
+        <v>1</v>
+      </c>
+      <c r="O323" s="5">
+        <v>1</v>
+      </c>
+      <c r="P323" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q323" s="5">
+        <v>8</v>
+      </c>
+      <c r="S323" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T323" s="5">
+        <v>12</v>
+      </c>
+      <c r="U323" s="5">
+        <v>78</v>
+      </c>
+      <c r="V323" s="5">
+        <v>1</v>
+      </c>
+      <c r="W323" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y323" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB323" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC323" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="324" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="K324" s="5"/>
-      <c r="L324" s="2"/>
-      <c r="Z324" s="5"/>
-      <c r="AW324" s="2"/>
+      <c r="B324" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D324" s="2">
+        <v>11</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I324" s="5">
+        <v>1</v>
+      </c>
+      <c r="L324" s="5">
+        <v>5</v>
+      </c>
+      <c r="M324" s="5">
+        <v>1</v>
+      </c>
+      <c r="N324" s="5">
+        <v>0</v>
+      </c>
+      <c r="O324" s="5">
+        <v>1</v>
+      </c>
+      <c r="P324" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q324" s="5">
+        <v>8</v>
+      </c>
+      <c r="S324" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T324" s="5">
+        <v>12</v>
+      </c>
+      <c r="U324" s="5">
+        <v>78</v>
+      </c>
+      <c r="V324" s="5">
+        <v>0</v>
+      </c>
+      <c r="W324" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y324" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB324" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC324" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="325" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="K325" s="5"/>
-      <c r="L325" s="2"/>
-      <c r="Z325" s="5"/>
-      <c r="AW325" s="2"/>
+      <c r="B325" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D325" s="2">
+        <v>12</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I325" s="5">
+        <v>1</v>
+      </c>
+      <c r="L325" s="5">
+        <v>5</v>
+      </c>
+      <c r="M325" s="5">
+        <v>1</v>
+      </c>
+      <c r="N325" s="5">
+        <v>1</v>
+      </c>
+      <c r="O325" s="5">
+        <v>1</v>
+      </c>
+      <c r="P325" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q325" s="5">
+        <v>8</v>
+      </c>
+      <c r="S325" s="5">
+        <v>3456</v>
+      </c>
+      <c r="T325" s="5">
+        <v>12</v>
+      </c>
+      <c r="U325" s="5">
+        <v>78</v>
+      </c>
+      <c r="V325" s="5">
+        <v>1</v>
+      </c>
+      <c r="W325" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y325" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB325" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC325" s="2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="326" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
+      <c r="G326" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="327" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
+      <c r="B327" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D327" s="2">
+        <v>1</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I327" s="2">
+        <v>1</v>
+      </c>
+      <c r="K327" s="2">
+        <v>1</v>
+      </c>
+      <c r="L327" s="2">
+        <v>5</v>
+      </c>
+      <c r="M327" s="2">
+        <v>1</v>
+      </c>
+      <c r="N327" s="2"/>
+      <c r="W327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X327" s="2"/>
+      <c r="Y327" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z327" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA327" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB327" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC327" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD327" s="2">
+        <v>511</v>
+      </c>
+      <c r="AE327" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG327" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL327" s="3"/>
+      <c r="AR327" s="3"/>
+      <c r="AW327" s="2"/>
+    </row>
+    <row r="328" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D328" s="2">
+        <v>3</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I328" s="2">
+        <v>1</v>
+      </c>
+      <c r="K328" s="2">
+        <v>1</v>
+      </c>
+      <c r="L328" s="2">
+        <v>5</v>
+      </c>
+      <c r="M328" s="2">
+        <v>1</v>
+      </c>
+      <c r="N328" s="2"/>
+      <c r="W328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X328" s="2"/>
+      <c r="Y328" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z328" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA328" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB328" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC328" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD328" s="2">
+        <v>511</v>
+      </c>
+      <c r="AE328" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG328" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL328" s="3"/>
+      <c r="AR328" s="3"/>
+      <c r="AW328" s="2"/>
+    </row>
+    <row r="329" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D329" s="2">
+        <v>4</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I329" s="2">
+        <v>1</v>
+      </c>
+      <c r="K329" s="2">
+        <v>1</v>
+      </c>
+      <c r="L329" s="2">
+        <v>5</v>
+      </c>
+      <c r="M329" s="2">
+        <v>1</v>
+      </c>
+      <c r="N329" s="2"/>
+      <c r="W329" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X329" s="2"/>
+      <c r="Y329" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z329" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA329" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB329" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC329" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD329" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL329" s="3"/>
+      <c r="AR329" s="3"/>
+      <c r="AW329" s="2"/>
+    </row>
+    <row r="330" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW330" s="2"/>
+    </row>
+    <row r="331" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D331" s="2">
+        <v>1</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I331" s="2">
+        <v>1</v>
+      </c>
+      <c r="K331" s="2">
+        <v>1</v>
+      </c>
+      <c r="L331" s="2">
+        <v>5</v>
+      </c>
+      <c r="M331" s="2">
+        <v>1</v>
+      </c>
+      <c r="N331" s="2"/>
+      <c r="W331" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X331" s="2"/>
+      <c r="Y331" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z331" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA331" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB331" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC331" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD331" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL331" s="3"/>
+      <c r="AR331" s="3"/>
+      <c r="AW331" s="2"/>
+    </row>
+    <row r="332" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D332" s="2">
+        <v>2</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I332" s="2">
+        <v>1</v>
+      </c>
+      <c r="K332" s="2">
+        <v>1</v>
+      </c>
+      <c r="L332" s="2">
+        <v>5</v>
+      </c>
+      <c r="M332" s="2">
+        <v>1</v>
+      </c>
+      <c r="N332" s="2"/>
+      <c r="W332" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X332" s="2"/>
+      <c r="Y332" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z332" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA332" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB332" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC332" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD332" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG332" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL332" s="3"/>
+      <c r="AR332" s="3"/>
+      <c r="AW332" s="2"/>
+    </row>
+    <row r="333" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D333" s="2">
+        <v>3</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I333" s="2">
+        <v>1</v>
+      </c>
+      <c r="K333" s="2">
+        <v>1</v>
+      </c>
+      <c r="L333" s="2">
+        <v>5</v>
+      </c>
+      <c r="M333" s="2">
+        <v>1</v>
+      </c>
+      <c r="N333" s="2"/>
+      <c r="W333" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X333" s="2"/>
+      <c r="Y333" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z333" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA333" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB333" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC333" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD333" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG333" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL333" s="3"/>
+      <c r="AR333" s="3"/>
+      <c r="AW333" s="2"/>
+    </row>
+    <row r="334" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D334" s="2">
+        <v>4</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I334" s="2">
+        <v>1</v>
+      </c>
+      <c r="K334" s="2">
+        <v>1</v>
+      </c>
+      <c r="L334" s="2">
+        <v>5</v>
+      </c>
+      <c r="M334" s="2">
+        <v>1</v>
+      </c>
+      <c r="N334" s="2"/>
+      <c r="W334" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X334" s="2"/>
+      <c r="Y334" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z334" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA334" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB334" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC334" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD334" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL334" s="3"/>
+      <c r="AR334" s="3"/>
+      <c r="AW334" s="2"/>
+    </row>
+    <row r="335" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="F335" s="2"/>
+      <c r="G335" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+      <c r="K335" s="5"/>
+      <c r="X335" s="2"/>
+      <c r="Z335" s="5"/>
+      <c r="AA335" s="5"/>
+      <c r="AB335" s="5"/>
+      <c r="AC335" s="5"/>
+      <c r="AD335" s="5"/>
+      <c r="AE335" s="5"/>
+      <c r="AW335" s="2"/>
+    </row>
+    <row r="336" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="K339" s="5"/>
+      <c r="L339" s="2"/>
+      <c r="Z339" s="5"/>
+      <c r="AA339" s="5"/>
+      <c r="AB339" s="5"/>
+      <c r="AW339" s="2"/>
+      <c r="AX339" s="2"/>
+      <c r="AY339" s="2"/>
+      <c r="AZ339" s="2"/>
+      <c r="BA339" s="2"/>
+      <c r="BD339"/>
+      <c r="BE339"/>
+      <c r="BF339"/>
+      <c r="BG339"/>
+      <c r="BH339"/>
+    </row>
+    <row r="340" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="F340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="K340" s="5"/>
+      <c r="X340" s="2"/>
+      <c r="Z340" s="5"/>
+      <c r="AA340" s="5"/>
+      <c r="AB340" s="5"/>
+      <c r="AC340" s="5"/>
+      <c r="AD340" s="5"/>
+      <c r="AE340" s="5"/>
+      <c r="AW340" s="2"/>
+    </row>
+    <row r="341" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="K341" s="5"/>
+      <c r="M341" s="2"/>
+      <c r="N341" s="2"/>
+      <c r="Z341" s="5"/>
+      <c r="AA341" s="5"/>
+      <c r="AB341" s="5"/>
+      <c r="AC341" s="5"/>
+      <c r="AW341" s="2"/>
+    </row>
+    <row r="342" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="K342" s="5"/>
+      <c r="M342" s="2"/>
+      <c r="N342" s="2"/>
+      <c r="Z342" s="5"/>
+      <c r="AA342" s="5"/>
+      <c r="AB342" s="5"/>
+      <c r="AC342" s="5"/>
+      <c r="AD342" s="5"/>
+      <c r="AW342" s="2"/>
+    </row>
+    <row r="343" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="K343" s="5"/>
+      <c r="M343" s="2"/>
+      <c r="N343" s="2"/>
+      <c r="Z343" s="5"/>
+      <c r="AA343" s="5"/>
+      <c r="AW343" s="2"/>
+    </row>
+    <row r="344" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="K344" s="5"/>
+      <c r="L344" s="2"/>
+      <c r="Z344" s="5"/>
+      <c r="AW344" s="2"/>
+    </row>
+    <row r="345" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="K345" s="5"/>
+      <c r="L345" s="2"/>
+      <c r="Z345" s="5"/>
+      <c r="AW345" s="2"/>
+    </row>
+    <row r="346" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="K346" s="5"/>
+      <c r="L346" s="2"/>
+      <c r="Z346" s="5"/>
+      <c r="AW346" s="2"/>
+    </row>
+    <row r="347" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BH326">
+  <autoFilter ref="A1:BH347">
     <sortState ref="A2:BH327">
       <sortCondition ref="A1:A326"/>
     </sortState>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$355</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1568,11 +1567,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="P175" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="P181" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
-      <selection pane="bottomRight" activeCell="S189" sqref="S189"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
+      <selection pane="bottomRight" activeCell="V199" sqref="V199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20235,13 +20234,13 @@
         <v>1</v>
       </c>
       <c r="R189" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S189" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T189" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U189" s="2">
         <v>1</v>
@@ -20353,13 +20352,13 @@
         <v>1</v>
       </c>
       <c r="R190" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S190" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T190" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U190" s="2">
         <v>1</v>
@@ -20468,13 +20467,13 @@
         <v>1</v>
       </c>
       <c r="R191" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S191" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T191" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U191" s="2">
         <v>1</v>
@@ -20583,13 +20582,13 @@
         <v>1</v>
       </c>
       <c r="R192" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T192" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U192" s="2">
         <v>1</v>
@@ -20698,13 +20697,13 @@
         <v>1</v>
       </c>
       <c r="R193" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S193" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T193" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U193" s="2">
         <v>1</v>
@@ -20854,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="T195" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U195" s="2">
         <v>1</v>
@@ -20975,7 +20974,7 @@
         <v>1</v>
       </c>
       <c r="T196" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U196" s="2">
         <v>1</v>
@@ -21093,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="T197" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U197" s="2">
         <v>1</v>
@@ -21208,7 +21207,7 @@
         <v>1</v>
       </c>
       <c r="T198" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U198" s="2">
         <v>1</v>
@@ -21323,7 +21322,7 @@
         <v>1</v>
       </c>
       <c r="T199" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U199" s="2">
         <v>1</v>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="364">
   <si>
     <t>experiment</t>
   </si>
@@ -1117,6 +1117,9 @@
   </si>
   <si>
     <t>mc_nonrigid_met</t>
+  </si>
+  <si>
+    <t>stim many cells</t>
   </si>
 </sst>
 </file>
@@ -1567,11 +1570,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="P181" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="AI292" activePane="bottomLeft"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
-      <selection pane="bottomRight" activeCell="V199" sqref="V199"/>
+      <selection pane="bottomLeft" activeCell="G307" sqref="G307"/>
+      <selection pane="bottomRight" activeCell="AM310" sqref="AM310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28528,6 +28531,9 @@
       <c r="J302" s="5">
         <v>1</v>
       </c>
+      <c r="L302" s="2">
+        <v>0</v>
+      </c>
       <c r="M302" s="5">
         <v>5</v>
       </c>
@@ -28560,6 +28566,9 @@
       </c>
       <c r="AH302" s="2">
         <v>511</v>
+      </c>
+      <c r="AO302" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="303" spans="1:41" x14ac:dyDescent="0.25">
@@ -28593,6 +28602,9 @@
       <c r="J303" s="5">
         <v>1</v>
       </c>
+      <c r="L303" s="2">
+        <v>0</v>
+      </c>
       <c r="M303" s="5">
         <v>5</v>
       </c>
@@ -28655,6 +28667,9 @@
       </c>
       <c r="J304" s="5">
         <v>1</v>
+      </c>
+      <c r="L304" s="2">
+        <v>0</v>
       </c>
       <c r="M304" s="5">
         <v>5</v>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1570,11 +1570,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="AI292" activePane="bottomLeft"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="J187" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="G307" sqref="G307"/>
-      <selection pane="bottomRight" activeCell="AM310" sqref="AM310"/>
+      <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
+      <selection pane="bottomRight" activeCell="M201" sqref="M201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="377">
   <si>
     <t>experiment</t>
   </si>
@@ -1120,6 +1120,45 @@
   </si>
   <si>
     <t>stim many cells</t>
+  </si>
+  <si>
+    <t>no mmn type extracted</t>
+  </si>
+  <si>
+    <t>7_17_22</t>
+  </si>
+  <si>
+    <t>M226</t>
+  </si>
+  <si>
+    <t>A2_cont44</t>
+  </si>
+  <si>
+    <t>A2_cont23</t>
+  </si>
+  <si>
+    <t>A2_cont12</t>
+  </si>
+  <si>
+    <t>A2_cont051</t>
+  </si>
+  <si>
+    <t>A1_cont21</t>
+  </si>
+  <si>
+    <t>A1_cont053</t>
+  </si>
+  <si>
+    <t>A1_cont14</t>
+  </si>
+  <si>
+    <t>A1_cont45</t>
+  </si>
+  <si>
+    <t>shit bidi in this one</t>
+  </si>
+  <si>
+    <t>shit bidi</t>
   </si>
 </sst>
 </file>
@@ -1570,11 +1609,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="J187" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="N319" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
-      <selection pane="bottomRight" activeCell="M201" sqref="M201"/>
+      <selection pane="bottomLeft" activeCell="E344" sqref="E344"/>
+      <selection pane="bottomRight" activeCell="P348" sqref="P348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14199,7 +14238,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" s="2">
         <v>1</v>
@@ -14249,6 +14288,9 @@
       </c>
       <c r="AH128" s="2">
         <v>637</v>
+      </c>
+      <c r="AO128" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="AP128" s="2" t="s">
         <v>177</v>
@@ -30576,26 +30618,241 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
+      <c r="B336" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D336" s="2">
+        <v>1</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I336" s="5">
+        <v>1</v>
+      </c>
+      <c r="J336" s="5">
+        <v>1</v>
+      </c>
+      <c r="M336" s="5">
+        <v>5</v>
+      </c>
+      <c r="N336" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q336" s="5">
+        <v>1</v>
+      </c>
+      <c r="R336" s="5">
+        <v>3</v>
+      </c>
+      <c r="U336" s="5">
+        <v>1</v>
+      </c>
+      <c r="V336" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB336" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG336" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH336" s="2">
+        <v>511</v>
+      </c>
     </row>
     <row r="337" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
+      <c r="B337" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D337" s="2">
+        <v>2</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I337" s="5">
+        <v>1</v>
+      </c>
+      <c r="J337" s="5">
+        <v>1</v>
+      </c>
+      <c r="M337" s="5">
+        <v>5</v>
+      </c>
+      <c r="N337" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q337" s="5">
+        <v>1</v>
+      </c>
+      <c r="R337" s="5">
+        <v>3</v>
+      </c>
+      <c r="U337" s="5">
+        <v>1</v>
+      </c>
+      <c r="V337" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB337" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG337" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH337" s="2">
+        <v>511</v>
+      </c>
     </row>
     <row r="338" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
+      <c r="B338" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D338" s="2">
+        <v>3</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I338" s="5">
+        <v>1</v>
+      </c>
+      <c r="J338" s="5">
+        <v>1</v>
+      </c>
+      <c r="M338" s="5">
+        <v>5</v>
+      </c>
+      <c r="N338" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="5">
+        <v>1</v>
+      </c>
+      <c r="R338" s="5">
+        <v>3</v>
+      </c>
+      <c r="U338" s="5">
+        <v>1</v>
+      </c>
+      <c r="V338" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB338" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG338" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH338" s="2">
+        <v>511</v>
+      </c>
     </row>
     <row r="339" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
+      <c r="B339" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D339" s="2">
+        <v>4</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I339" s="5">
+        <v>1</v>
+      </c>
+      <c r="J339" s="5">
+        <v>1</v>
+      </c>
       <c r="L339" s="5"/>
-      <c r="M339" s="2"/>
+      <c r="M339" s="2">
+        <v>5</v>
+      </c>
+      <c r="N339" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="5">
+        <v>1</v>
+      </c>
+      <c r="R339" s="5">
+        <v>3</v>
+      </c>
+      <c r="U339" s="5">
+        <v>1</v>
+      </c>
+      <c r="V339" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB339" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD339" s="5"/>
       <c r="AE339" s="5"/>
       <c r="AF339" s="5"/>
+      <c r="AG339" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH339" s="2">
+        <v>511</v>
+      </c>
       <c r="AZ339" s="2"/>
       <c r="BA339" s="2"/>
       <c r="BB339" s="2"/>
@@ -30611,23 +30868,76 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="F340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="J340" s="2"/>
+      <c r="B340" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D340" s="2">
+        <v>5</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I340" s="5">
+        <v>1</v>
+      </c>
+      <c r="J340" s="2">
+        <v>1</v>
+      </c>
       <c r="L340" s="5"/>
+      <c r="M340" s="5">
+        <v>5</v>
+      </c>
+      <c r="N340" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="5">
+        <v>1</v>
+      </c>
+      <c r="R340" s="5">
+        <v>3</v>
+      </c>
+      <c r="U340" s="5">
+        <v>1</v>
+      </c>
+      <c r="V340" s="5">
+        <v>1</v>
+      </c>
       <c r="W340" s="5"/>
+      <c r="AB340" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AC340" s="2"/>
       <c r="AD340" s="5"/>
       <c r="AE340" s="5"/>
       <c r="AF340" s="5"/>
-      <c r="AG340" s="5"/>
-      <c r="AH340" s="5"/>
+      <c r="AG340" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH340" s="2">
+        <v>511</v>
+      </c>
       <c r="AZ340" s="2"/>
     </row>
     <row r="341" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
+      <c r="G341" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H341" s="2"/>
       <c r="L341" s="5"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
@@ -30641,52 +30951,327 @@
       <c r="A342" s="1">
         <v>341</v>
       </c>
+      <c r="B342" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D342" s="2">
+        <v>6</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I342" s="5">
+        <v>2</v>
+      </c>
+      <c r="J342" s="5">
+        <v>1</v>
+      </c>
       <c r="L342" s="5"/>
-      <c r="N342" s="2"/>
+      <c r="M342" s="5">
+        <v>5</v>
+      </c>
+      <c r="N342" s="2">
+        <v>1</v>
+      </c>
       <c r="O342" s="2"/>
+      <c r="Q342" s="5">
+        <v>1</v>
+      </c>
+      <c r="R342" s="5">
+        <v>3</v>
+      </c>
+      <c r="U342" s="5">
+        <v>1</v>
+      </c>
+      <c r="V342" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB342" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD342" s="5"/>
       <c r="AE342" s="5"/>
       <c r="AF342" s="5"/>
-      <c r="AG342" s="5"/>
-      <c r="AH342" s="5"/>
+      <c r="AG342" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH342" s="2">
+        <v>511</v>
+      </c>
       <c r="AZ342" s="2"/>
     </row>
     <row r="343" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
+      <c r="B343" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D343" s="2">
+        <v>7</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I343" s="5">
+        <v>2</v>
+      </c>
+      <c r="J343" s="5">
+        <v>1</v>
+      </c>
       <c r="L343" s="5"/>
-      <c r="N343" s="2"/>
+      <c r="M343" s="5">
+        <v>5</v>
+      </c>
+      <c r="N343" s="2">
+        <v>1</v>
+      </c>
       <c r="O343" s="2"/>
+      <c r="Q343" s="5">
+        <v>1</v>
+      </c>
+      <c r="R343" s="5">
+        <v>3</v>
+      </c>
+      <c r="U343" s="5">
+        <v>1</v>
+      </c>
+      <c r="V343" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB343" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD343" s="5"/>
       <c r="AE343" s="5"/>
+      <c r="AG343" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH343" s="2">
+        <v>511</v>
+      </c>
       <c r="AZ343" s="2"/>
     </row>
     <row r="344" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
+      <c r="B344" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D344" s="2">
+        <v>8</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I344" s="5">
+        <v>2</v>
+      </c>
+      <c r="J344" s="5">
+        <v>1</v>
+      </c>
       <c r="L344" s="5"/>
-      <c r="M344" s="2"/>
+      <c r="M344" s="2">
+        <v>5</v>
+      </c>
+      <c r="N344" s="5">
+        <v>1</v>
+      </c>
+      <c r="P344" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="5">
+        <v>1</v>
+      </c>
+      <c r="R344" s="5">
+        <v>3</v>
+      </c>
+      <c r="U344" s="5">
+        <v>1</v>
+      </c>
+      <c r="V344" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB344" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD344" s="5"/>
+      <c r="AG344" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH344" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO344" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="AZ344" s="2"/>
     </row>
     <row r="345" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
+      <c r="B345" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D345" s="2">
+        <v>9</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I345" s="5">
+        <v>2</v>
+      </c>
+      <c r="J345" s="5">
+        <v>1</v>
+      </c>
       <c r="L345" s="5"/>
-      <c r="M345" s="2"/>
+      <c r="M345" s="2">
+        <v>5</v>
+      </c>
+      <c r="N345" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q345" s="5">
+        <v>1</v>
+      </c>
+      <c r="R345" s="5">
+        <v>3</v>
+      </c>
+      <c r="U345" s="5">
+        <v>1</v>
+      </c>
+      <c r="V345" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB345" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD345" s="5"/>
+      <c r="AG345" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH345" s="2">
+        <v>511</v>
+      </c>
       <c r="AZ345" s="2"/>
     </row>
     <row r="346" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
+      <c r="B346" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D346" s="2">
+        <v>10</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I346" s="5">
+        <v>2</v>
+      </c>
+      <c r="J346" s="5">
+        <v>1</v>
+      </c>
       <c r="L346" s="5"/>
-      <c r="M346" s="2"/>
+      <c r="M346" s="2">
+        <v>5</v>
+      </c>
+      <c r="N346" s="5">
+        <v>1</v>
+      </c>
+      <c r="P346" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q346" s="5">
+        <v>1</v>
+      </c>
+      <c r="R346" s="5">
+        <v>3</v>
+      </c>
+      <c r="U346" s="5">
+        <v>1</v>
+      </c>
+      <c r="V346" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB346" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AD346" s="5"/>
+      <c r="AG346" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AH346" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO346" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="AZ346" s="2"/>
     </row>
     <row r="347" spans="1:63" x14ac:dyDescent="0.25">

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="381">
   <si>
     <t>experiment</t>
   </si>
@@ -969,18 +969,6 @@
     <t>align_pulse_crop_method</t>
   </si>
   <si>
-    <t>A1_cont_05</t>
-  </si>
-  <si>
-    <t>A1_cont_2</t>
-  </si>
-  <si>
-    <t>A1_cont_4</t>
-  </si>
-  <si>
-    <t>A1_cont_1</t>
-  </si>
-  <si>
     <t>M108</t>
   </si>
   <si>
@@ -1131,34 +1119,58 @@
     <t>M226</t>
   </si>
   <si>
-    <t>A2_cont44</t>
-  </si>
-  <si>
-    <t>A2_cont23</t>
-  </si>
-  <si>
-    <t>A2_cont12</t>
-  </si>
-  <si>
-    <t>A2_cont051</t>
-  </si>
-  <si>
-    <t>A1_cont21</t>
-  </si>
-  <si>
-    <t>A1_cont053</t>
-  </si>
-  <si>
-    <t>A1_cont14</t>
-  </si>
-  <si>
-    <t>A1_cont45</t>
-  </si>
-  <si>
-    <t>shit bidi in this one</t>
-  </si>
-  <si>
-    <t>shit bidi</t>
+    <t>shit bidi, hard too fix</t>
+  </si>
+  <si>
+    <t>shit bidi in this one, fixed</t>
+  </si>
+  <si>
+    <t>dark haze moving over throughout vid, probably not use</t>
+  </si>
+  <si>
+    <t>A1_05cont1</t>
+  </si>
+  <si>
+    <t>A1_2cont3</t>
+  </si>
+  <si>
+    <t>A1_4cont4</t>
+  </si>
+  <si>
+    <t>A1_4cont1</t>
+  </si>
+  <si>
+    <t>A1_2cont2</t>
+  </si>
+  <si>
+    <t>A1_1cont3</t>
+  </si>
+  <si>
+    <t>A1_05cont4</t>
+  </si>
+  <si>
+    <t>A1_2cont1</t>
+  </si>
+  <si>
+    <t>A1_05cont3</t>
+  </si>
+  <si>
+    <t>A1_1cont4</t>
+  </si>
+  <si>
+    <t>A1_4cont5</t>
+  </si>
+  <si>
+    <t>A2_05cont1</t>
+  </si>
+  <si>
+    <t>A2_1cont2</t>
+  </si>
+  <si>
+    <t>A2_2cont3</t>
+  </si>
+  <si>
+    <t>A2_4cont4</t>
   </si>
 </sst>
 </file>
@@ -1609,11 +1621,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="N319" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="G319" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="E344" sqref="E344"/>
-      <selection pane="bottomRight" activeCell="P348" sqref="P348"/>
+      <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
+      <selection pane="bottomRight" activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,34 +1729,34 @@
         <v>98</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>299</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>25</v>
@@ -5210,7 +5222,7 @@
         <v>637</v>
       </c>
       <c r="AO35" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AU35" s="15"/>
       <c r="AZ35" s="2"/>
@@ -5308,7 +5320,7 @@
         <v>637</v>
       </c>
       <c r="AO36" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AU36" s="15"/>
       <c r="AZ36" s="2"/>
@@ -12472,7 +12484,7 @@
         <v>637</v>
       </c>
       <c r="AO110" s="28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AP110" s="2" t="s">
         <v>164</v>
@@ -13107,7 +13119,7 @@
         <v>637</v>
       </c>
       <c r="AO116" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AP116" s="2" t="s">
         <v>164</v>
@@ -14290,7 +14302,7 @@
         <v>637</v>
       </c>
       <c r="AO128" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AP128" s="2" t="s">
         <v>177</v>
@@ -15008,7 +15020,7 @@
         <v>637</v>
       </c>
       <c r="AO135" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AP135" s="2" t="s">
         <v>177</v>
@@ -15512,7 +15524,7 @@
         <v>637</v>
       </c>
       <c r="AO140" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP140" s="2" t="s">
         <v>184</v>
@@ -16381,7 +16393,7 @@
         <v>637</v>
       </c>
       <c r="AO149" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AP149" s="2" t="s">
         <v>184</v>
@@ -16986,7 +16998,7 @@
         <v>637</v>
       </c>
       <c r="AO155" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AP155" s="2" t="s">
         <v>184</v>
@@ -17331,7 +17343,7 @@
         <v>637</v>
       </c>
       <c r="AO158" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AP158" s="2" t="s">
         <v>184</v>
@@ -17444,7 +17456,7 @@
         <v>637</v>
       </c>
       <c r="AO159" s="27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AP159" s="2" t="s">
         <v>184</v>
@@ -20317,7 +20329,7 @@
         <v>637</v>
       </c>
       <c r="AO189" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AP189" s="2" t="s">
         <v>210</v>
@@ -20930,7 +20942,7 @@
         <v>637</v>
       </c>
       <c r="AO195" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AP195" s="2" t="s">
         <v>210</v>
@@ -21552,7 +21564,7 @@
         <v>637</v>
       </c>
       <c r="AO201" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AP201" s="2" t="s">
         <v>210</v>
@@ -25111,7 +25123,7 @@
         <v>44599</v>
       </c>
       <c r="AO250" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AZ250" s="2"/>
       <c r="BA250" s="2"/>
@@ -26805,7 +26817,7 @@
         <v>1.2</v>
       </c>
       <c r="AO274" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -26959,7 +26971,7 @@
         <v>1.2</v>
       </c>
       <c r="AO276" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:41" x14ac:dyDescent="0.25">
@@ -27113,7 +27125,7 @@
         <v>1.2</v>
       </c>
       <c r="AO278" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="279" spans="1:41" x14ac:dyDescent="0.25">
@@ -27267,7 +27279,7 @@
         <v>1.2</v>
       </c>
       <c r="AO280" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" spans="1:41" x14ac:dyDescent="0.25">
@@ -27981,10 +27993,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D292" s="2">
         <v>1</v>
@@ -28047,7 +28059,7 @@
         <v>511</v>
       </c>
       <c r="AO292" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="293" spans="1:41" x14ac:dyDescent="0.25">
@@ -28055,10 +28067,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D293" s="2">
         <v>2</v>
@@ -28126,10 +28138,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D294" s="2">
         <v>3</v>
@@ -28197,10 +28209,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D295" s="2">
         <v>4</v>
@@ -28268,10 +28280,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D296" s="2">
         <v>5</v>
@@ -28344,7 +28356,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>305</v>
@@ -28409,7 +28421,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>305</v>
@@ -28474,7 +28486,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>305</v>
@@ -28483,7 +28495,7 @@
         <v>12</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>37</v>
@@ -28547,10 +28559,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D302" s="2">
         <v>1</v>
@@ -28610,7 +28622,7 @@
         <v>511</v>
       </c>
       <c r="AO302" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="303" spans="1:41" x14ac:dyDescent="0.25">
@@ -28618,16 +28630,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D303" s="2">
         <v>2</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>37</v>
@@ -28684,16 +28696,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D304" s="2">
         <v>3</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>37</v>
@@ -28764,16 +28776,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D306" s="2">
         <v>1</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>37</v>
@@ -28835,10 +28847,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D307" s="2">
         <v>2</v>
@@ -28906,10 +28918,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D308" s="2">
         <v>3</v>
@@ -28977,10 +28989,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D309" s="2">
         <v>4</v>
@@ -29048,10 +29060,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D310" s="2">
         <v>5</v>
@@ -29119,10 +29131,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D311" s="2">
         <v>6</v>
@@ -29198,10 +29210,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D313" s="2">
         <v>1</v>
@@ -29275,10 +29287,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D314" s="2">
         <v>2</v>
@@ -29352,10 +29364,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D315" s="2">
         <v>3</v>
@@ -29424,7 +29436,7 @@
         <v>1.2</v>
       </c>
       <c r="AO315" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:41" x14ac:dyDescent="0.25">
@@ -29432,10 +29444,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D316" s="2">
         <v>4</v>
@@ -29509,10 +29521,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D317" s="2">
         <v>5</v>
@@ -29586,10 +29598,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D318" s="2">
         <v>6</v>
@@ -29672,10 +29684,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D320" s="2">
         <v>7</v>
@@ -29746,10 +29758,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D321" s="2">
         <v>8</v>
@@ -29820,10 +29832,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D322" s="2">
         <v>9</v>
@@ -29894,10 +29906,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D323" s="2">
         <v>10</v>
@@ -29968,10 +29980,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D324" s="2">
         <v>11</v>
@@ -30042,10 +30054,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D325" s="2">
         <v>12</v>
@@ -30133,7 +30145,7 @@
         <v>1</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>8</v>
@@ -30160,7 +30172,16 @@
         <v>1</v>
       </c>
       <c r="O327" s="2"/>
-      <c r="W327" s="2">
+      <c r="Q327" s="5">
+        <v>1</v>
+      </c>
+      <c r="R327" s="5">
+        <v>3</v>
+      </c>
+      <c r="U327" s="5">
+        <v>1</v>
+      </c>
+      <c r="V327" s="5">
         <v>1</v>
       </c>
       <c r="AB327" s="2" t="s">
@@ -30203,7 +30224,7 @@
         <v>3</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>8</v>
@@ -30230,7 +30251,16 @@
         <v>1</v>
       </c>
       <c r="O328" s="2"/>
-      <c r="W328" s="2">
+      <c r="Q328" s="5">
+        <v>1</v>
+      </c>
+      <c r="R328" s="5">
+        <v>3</v>
+      </c>
+      <c r="U328" s="5">
+        <v>1</v>
+      </c>
+      <c r="V328" s="5">
         <v>1</v>
       </c>
       <c r="AB328" s="2" t="s">
@@ -30273,7 +30303,7 @@
         <v>4</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>8</v>
@@ -30300,6 +30330,18 @@
         <v>1</v>
       </c>
       <c r="O329" s="2"/>
+      <c r="Q329" s="5">
+        <v>1</v>
+      </c>
+      <c r="R329" s="5">
+        <v>3</v>
+      </c>
+      <c r="U329" s="5">
+        <v>1</v>
+      </c>
+      <c r="V329" s="5">
+        <v>1</v>
+      </c>
       <c r="AB329" s="2" t="s">
         <v>26</v>
       </c>
@@ -30346,7 +30388,7 @@
         <v>1</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>8</v>
@@ -30373,6 +30415,18 @@
         <v>1</v>
       </c>
       <c r="O331" s="2"/>
+      <c r="Q331" s="5">
+        <v>1</v>
+      </c>
+      <c r="R331" s="5">
+        <v>3</v>
+      </c>
+      <c r="U331" s="5">
+        <v>1</v>
+      </c>
+      <c r="V331" s="5">
+        <v>1</v>
+      </c>
       <c r="AB331" s="2" t="s">
         <v>26</v>
       </c>
@@ -30410,7 +30464,7 @@
         <v>2</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>8</v>
@@ -30437,6 +30491,18 @@
         <v>1</v>
       </c>
       <c r="O332" s="2"/>
+      <c r="Q332" s="5">
+        <v>1</v>
+      </c>
+      <c r="R332" s="5">
+        <v>3</v>
+      </c>
+      <c r="U332" s="5">
+        <v>1</v>
+      </c>
+      <c r="V332" s="5">
+        <v>1</v>
+      </c>
       <c r="AB332" s="2" t="s">
         <v>26</v>
       </c>
@@ -30477,7 +30543,7 @@
         <v>3</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>8</v>
@@ -30504,6 +30570,18 @@
         <v>1</v>
       </c>
       <c r="O333" s="2"/>
+      <c r="Q333" s="5">
+        <v>1</v>
+      </c>
+      <c r="R333" s="5">
+        <v>3</v>
+      </c>
+      <c r="U333" s="5">
+        <v>1</v>
+      </c>
+      <c r="V333" s="5">
+        <v>1</v>
+      </c>
       <c r="AB333" s="2" t="s">
         <v>26</v>
       </c>
@@ -30544,7 +30622,7 @@
         <v>4</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>8</v>
@@ -30571,6 +30649,18 @@
         <v>1</v>
       </c>
       <c r="O334" s="2"/>
+      <c r="Q334" s="5">
+        <v>1</v>
+      </c>
+      <c r="R334" s="5">
+        <v>3</v>
+      </c>
+      <c r="U334" s="5">
+        <v>1</v>
+      </c>
+      <c r="V334" s="5">
+        <v>1</v>
+      </c>
       <c r="AB334" s="2" t="s">
         <v>26</v>
       </c>
@@ -30619,16 +30709,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D336" s="2">
         <v>1</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>8</v>
@@ -30678,10 +30768,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D337" s="2">
         <v>2</v>
@@ -30737,16 +30827,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D338" s="2">
         <v>3</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F338" s="5" t="s">
         <v>8</v>
@@ -30796,16 +30886,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D339" s="2">
         <v>4</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F339" s="5" t="s">
         <v>8</v>
@@ -30869,16 +30959,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D340" s="2">
         <v>5</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F340" s="5" t="s">
         <v>8</v>
@@ -30952,16 +31042,16 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D342" s="2">
         <v>6</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>111</v>
@@ -30976,7 +31066,7 @@
         <v>2</v>
       </c>
       <c r="J342" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L342" s="5"/>
       <c r="M342" s="5">
@@ -31010,6 +31100,9 @@
       <c r="AH342" s="2">
         <v>511</v>
       </c>
+      <c r="AO342" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="AZ342" s="2"/>
     </row>
     <row r="343" spans="1:63" x14ac:dyDescent="0.25">
@@ -31017,16 +31110,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D343" s="2">
         <v>7</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F343" s="5" t="s">
         <v>111</v>
@@ -31081,16 +31174,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D344" s="2">
         <v>8</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F344" s="5" t="s">
         <v>111</v>
@@ -31140,7 +31233,7 @@
         <v>511</v>
       </c>
       <c r="AO344" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="AZ344" s="2"/>
     </row>
@@ -31149,16 +31242,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D345" s="2">
         <v>9</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F345" s="5" t="s">
         <v>111</v>
@@ -31211,10 +31304,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D346" s="2">
         <v>10</v>
@@ -31235,7 +31328,7 @@
         <v>2</v>
       </c>
       <c r="J346" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L346" s="5"/>
       <c r="M346" s="2">
@@ -31270,7 +31363,7 @@
         <v>511</v>
       </c>
       <c r="AO346" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AZ346" s="2"/>
     </row>
@@ -31342,22 +31435,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1621,11 +1621,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="G319" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="F310" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
-      <selection pane="bottomRight" activeCell="G330" sqref="G330"/>
+      <selection pane="bottomRight" activeCell="I323" sqref="I323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$355</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1621,11 +1622,11 @@
   <dimension ref="A1:BK355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="F310" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="AO1" activePane="bottomRight"/>
       <selection activeCell="T273" sqref="T273"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
-      <selection pane="bottomRight" activeCell="I323" sqref="I323"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -1925,11 +1925,11 @@
   <dimension ref="A1:BO450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="AC1" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="AF1" activePane="bottomRight"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
-      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
+      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,8 +2242,8 @@
         <v>43375</v>
       </c>
       <c r="AL2" s="57">
-        <f>(AK2-AJ2)</f>
-        <v>116</v>
+        <f>(AK2-AJ2)/7</f>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS2" s="3" t="s">
         <v>5</v>
@@ -2369,8 +2369,8 @@
         <v>43375</v>
       </c>
       <c r="AL3" s="57">
-        <f t="shared" ref="AL3:AL41" si="0">(AK3-AJ3)</f>
-        <v>116</v>
+        <f t="shared" ref="AL3:AL5" si="0">(AK3-AJ3)/7</f>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS3" s="10" t="s">
         <v>105</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="AL4" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS4" s="10" t="s">
         <v>107</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="AL5" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>108</v>
@@ -2793,7 +2793,7 @@
         <v>43375</v>
       </c>
       <c r="AL7" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AL3:AL41" si="1">(AK7-AJ7)</f>
         <v>116</v>
       </c>
       <c r="AS7" s="3" t="s">
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="AL8" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS8" s="3" t="s">
@@ -3049,7 +3049,7 @@
         <v>43375</v>
       </c>
       <c r="AL9" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS9" s="3" t="s">
@@ -3178,7 +3178,7 @@
         <v>43375</v>
       </c>
       <c r="AL10" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS10" s="3" t="s">
@@ -3331,7 +3331,7 @@
         <v>43375</v>
       </c>
       <c r="AL12" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS12" s="12" t="s">
@@ -3455,7 +3455,7 @@
         <v>43375</v>
       </c>
       <c r="AL13" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS13" s="3"/>
@@ -3577,7 +3577,7 @@
         <v>43375</v>
       </c>
       <c r="AL14" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS14" s="3" t="s">
@@ -3703,7 +3703,7 @@
         <v>43375</v>
       </c>
       <c r="AL15" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS15" s="14" t="s">
@@ -3829,7 +3829,7 @@
         <v>43375</v>
       </c>
       <c r="AL16" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS16" s="14" t="s">
@@ -3992,7 +3992,7 @@
         <v>43375</v>
       </c>
       <c r="AL18" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS18" s="15"/>
@@ -4114,7 +4114,7 @@
         <v>43375</v>
       </c>
       <c r="AL19" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS19" s="15" t="s">
@@ -4240,7 +4240,7 @@
         <v>43375</v>
       </c>
       <c r="AL20" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS20" s="15"/>
@@ -4364,7 +4364,7 @@
         <v>43375</v>
       </c>
       <c r="AL21" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS21" s="16" t="s">
@@ -4529,7 +4529,7 @@
         <v>43375</v>
       </c>
       <c r="AL23" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS23" s="15" t="s">
@@ -4656,7 +4656,7 @@
         <v>43375</v>
       </c>
       <c r="AL24" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS24" s="15" t="s">
@@ -4782,7 +4782,7 @@
         <v>43375</v>
       </c>
       <c r="AL25" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS25" s="15"/>
@@ -4906,7 +4906,7 @@
         <v>43375</v>
       </c>
       <c r="AL26" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS26" s="15"/>
@@ -5074,7 +5074,7 @@
         <v>43375</v>
       </c>
       <c r="AL28" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS28" s="15"/>
@@ -5199,7 +5199,7 @@
         <v>43375</v>
       </c>
       <c r="AL29" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS29" s="15"/>
@@ -5323,7 +5323,7 @@
         <v>43375</v>
       </c>
       <c r="AL30" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS30" s="16" t="s">
@@ -5449,7 +5449,7 @@
         <v>43375</v>
       </c>
       <c r="AL31" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AT31" s="2" t="s">
@@ -5607,7 +5607,7 @@
         <v>43375</v>
       </c>
       <c r="AL33" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS33" s="15" t="s">
@@ -5713,7 +5713,7 @@
         <v>43375</v>
       </c>
       <c r="AL34" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS34" s="15" t="s">
@@ -5821,7 +5821,7 @@
         <v>43375</v>
       </c>
       <c r="AL35" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS35" s="15" t="s">
@@ -5929,7 +5929,7 @@
         <v>43375</v>
       </c>
       <c r="AL36" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS36" s="15" t="s">
@@ -6076,7 +6076,7 @@
         <v>43375</v>
       </c>
       <c r="AL38" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="BD38" s="2"/>
@@ -6178,7 +6178,7 @@
         <v>43375</v>
       </c>
       <c r="AL39" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="BD39" s="2"/>
@@ -6282,7 +6282,7 @@
         <v>43375</v>
       </c>
       <c r="AL40" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="BD40" s="2"/>
@@ -6386,7 +6386,7 @@
         <v>43375</v>
       </c>
       <c r="AL41" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="BD41" s="2"/>
@@ -11732,7 +11732,7 @@
         <v>43965</v>
       </c>
       <c r="AL94" s="57">
-        <f t="shared" ref="AL94:AL97" si="1">(AK94-AJ94)</f>
+        <f t="shared" ref="AL94:AL97" si="2">(AK94-AJ94)</f>
         <v>92</v>
       </c>
       <c r="AT94" s="2" t="s">
@@ -11862,7 +11862,7 @@
         <v>43965</v>
       </c>
       <c r="AL95" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="AS95" s="20" t="s">
@@ -11993,7 +11993,7 @@
         <v>43965</v>
       </c>
       <c r="AL96" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="AS96" s="20" t="s">
@@ -12121,7 +12121,7 @@
         <v>43965</v>
       </c>
       <c r="AL97" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="AT97" s="2" t="s">
@@ -12287,7 +12287,7 @@
         <v>43965</v>
       </c>
       <c r="AL99" s="57">
-        <f t="shared" ref="AL99:AL103" si="2">(AK99-AJ99)</f>
+        <f t="shared" ref="AL99:AL103" si="3">(AK99-AJ99)</f>
         <v>92</v>
       </c>
       <c r="AS99" s="27" t="s">
@@ -12421,7 +12421,7 @@
         <v>43965</v>
       </c>
       <c r="AL100" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AT100" s="2" t="s">
@@ -12551,7 +12551,7 @@
         <v>43965</v>
       </c>
       <c r="AL101" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AT101" s="2" t="s">
@@ -12678,7 +12678,7 @@
         <v>43965</v>
       </c>
       <c r="AL102" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AT102" s="2" t="s">
@@ -12802,7 +12802,7 @@
         <v>43965</v>
       </c>
       <c r="AL103" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AT103" s="2" t="s">
@@ -12955,7 +12955,7 @@
         <v>43966</v>
       </c>
       <c r="AL105" s="57">
-        <f t="shared" ref="AL105:AL106" si="3">(AK105-AJ105)</f>
+        <f t="shared" ref="AL105:AL106" si="4">(AK105-AJ105)</f>
         <v>93</v>
       </c>
       <c r="AS105" s="20" t="s">
@@ -13073,7 +13073,7 @@
         <v>43966</v>
       </c>
       <c r="AL106" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="AS106" s="20" t="s">
@@ -13243,7 +13243,7 @@
         <v>43966</v>
       </c>
       <c r="AL108" s="57">
-        <f t="shared" ref="AL108:AL111" si="4">(AK108-AJ108)</f>
+        <f t="shared" ref="AL108:AL111" si="5">(AK108-AJ108)</f>
         <v>93</v>
       </c>
       <c r="AS108" s="20" t="s">
@@ -13375,7 +13375,7 @@
         <v>43966</v>
       </c>
       <c r="AL109" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="AS109" s="20" t="s">
@@ -13504,7 +13504,7 @@
         <v>43966</v>
       </c>
       <c r="AL110" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="AS110" s="28" t="s">
@@ -13633,7 +13633,7 @@
         <v>43966</v>
       </c>
       <c r="AL111" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="AS111" s="23" t="s">
@@ -13806,7 +13806,7 @@
         <v>43966</v>
       </c>
       <c r="AL113" s="57">
-        <f t="shared" ref="AL113:AL117" si="5">(AK113-AJ113)</f>
+        <f t="shared" ref="AL113:AL117" si="6">(AK113-AJ113)</f>
         <v>93</v>
       </c>
       <c r="AT113" s="2" t="s">
@@ -13940,7 +13940,7 @@
         <v>43966</v>
       </c>
       <c r="AL114" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="AT114" s="2" t="s">
@@ -14074,7 +14074,7 @@
         <v>43966</v>
       </c>
       <c r="AL115" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="AT115" s="2" t="s">
@@ -14205,7 +14205,7 @@
         <v>43966</v>
       </c>
       <c r="AL116" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="AS116" s="2" t="s">
@@ -14333,7 +14333,7 @@
         <v>43966</v>
       </c>
       <c r="AL117" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="AS117" s="27" t="s">
@@ -14502,7 +14502,7 @@
         <v>43966</v>
       </c>
       <c r="AL119" s="57">
-        <f t="shared" ref="AL119:AL123" si="6">(AK119-AJ119)</f>
+        <f t="shared" ref="AL119:AL123" si="7">(AK119-AJ119)</f>
         <v>93</v>
       </c>
       <c r="AT119" s="2" t="s">
@@ -14626,7 +14626,7 @@
         <v>43966</v>
       </c>
       <c r="AL120" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AT120" s="2" t="s">
@@ -14750,7 +14750,7 @@
         <v>43966</v>
       </c>
       <c r="AL121" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AT121" s="2" t="s">
@@ -14874,7 +14874,7 @@
         <v>43966</v>
       </c>
       <c r="AL122" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AT122" s="2" t="s">
@@ -14995,7 +14995,7 @@
         <v>43966</v>
       </c>
       <c r="AL123" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AT123" s="2" t="s">
@@ -15157,7 +15157,7 @@
         <v>43968</v>
       </c>
       <c r="AL125" s="57">
-        <f t="shared" ref="AL125:AL129" si="7">(AK125-AJ125)</f>
+        <f t="shared" ref="AL125:AL129" si="8">(AK125-AJ125)</f>
         <v>95</v>
       </c>
       <c r="AT125" s="2" t="s">
@@ -15277,7 +15277,7 @@
         <v>43968</v>
       </c>
       <c r="AL126" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="AT126" s="2" t="s">
@@ -15397,7 +15397,7 @@
         <v>43968</v>
       </c>
       <c r="AL127" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="AT127" s="2" t="s">
@@ -15520,7 +15520,7 @@
         <v>43968</v>
       </c>
       <c r="AL128" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="AS128" s="2" t="s">
@@ -15640,7 +15640,7 @@
         <v>43968</v>
       </c>
       <c r="AL129" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="AS129" s="27" t="s">
@@ -15806,7 +15806,7 @@
         <v>43968</v>
       </c>
       <c r="AL131" s="57">
-        <f t="shared" ref="AL131:AL135" si="8">(AK131-AJ131)</f>
+        <f t="shared" ref="AL131:AL135" si="9">(AK131-AJ131)</f>
         <v>95</v>
       </c>
       <c r="AT131" s="2" t="s">
@@ -15936,7 +15936,7 @@
         <v>43968</v>
       </c>
       <c r="AL132" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AT132" s="2" t="s">
@@ -16066,7 +16066,7 @@
         <v>43968</v>
       </c>
       <c r="AL133" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AT133" s="2" t="s">
@@ -16193,7 +16193,7 @@
         <v>43968</v>
       </c>
       <c r="AL134" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AT134" s="2" t="s">
@@ -16317,7 +16317,7 @@
         <v>43968</v>
       </c>
       <c r="AL135" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AS135" s="2" t="s">
@@ -16487,7 +16487,7 @@
         <v>43972</v>
       </c>
       <c r="AL137" s="57">
-        <f t="shared" ref="AL137:AL141" si="9">(AK137-AJ137)</f>
+        <f t="shared" ref="AL137:AL141" si="10">(AK137-AJ137)</f>
         <v>100</v>
       </c>
       <c r="AT137" s="2" t="s">
@@ -16615,7 +16615,7 @@
         <v>43972</v>
       </c>
       <c r="AL138" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AT138" s="2" t="s">
@@ -16743,7 +16743,7 @@
         <v>43972</v>
       </c>
       <c r="AL139" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AS139" s="27" t="s">
@@ -16874,7 +16874,7 @@
         <v>43972</v>
       </c>
       <c r="AL140" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AS140" s="2" t="s">
@@ -17002,7 +17002,7 @@
         <v>43972</v>
       </c>
       <c r="AL141" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AT141" s="2" t="s">
@@ -17168,7 +17168,7 @@
         <v>43972</v>
       </c>
       <c r="AL143" s="57">
-        <f t="shared" ref="AL143:AL147" si="10">(AK143-AJ143)</f>
+        <f t="shared" ref="AL143:AL147" si="11">(AK143-AJ143)</f>
         <v>100</v>
       </c>
       <c r="AT143" s="2" t="s">
@@ -17295,7 +17295,7 @@
         <v>43972</v>
       </c>
       <c r="AL144" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AT144" s="2" t="s">
@@ -17422,7 +17422,7 @@
         <v>43972</v>
       </c>
       <c r="AL145" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AT145" s="2" t="s">
@@ -17549,7 +17549,7 @@
         <v>43972</v>
       </c>
       <c r="AL146" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AT146" s="2" t="s">
@@ -17670,7 +17670,7 @@
         <v>43972</v>
       </c>
       <c r="AL147" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AT147" s="2" t="s">
@@ -17836,7 +17836,7 @@
         <v>43972</v>
       </c>
       <c r="AL149" s="57">
-        <f t="shared" ref="AL149:AL153" si="11">(AK149-AJ149)</f>
+        <f t="shared" ref="AL149:AL153" si="12">(AK149-AJ149)</f>
         <v>100</v>
       </c>
       <c r="AS149" s="2" t="s">
@@ -17966,7 +17966,7 @@
         <v>43972</v>
       </c>
       <c r="AL150" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AT150" s="2" t="s">
@@ -18090,7 +18090,7 @@
         <v>43972</v>
       </c>
       <c r="AL151" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AT151" s="2" t="s">
@@ -18217,7 +18217,7 @@
         <v>43972</v>
       </c>
       <c r="AL152" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AT152" s="2" t="s">
@@ -18341,7 +18341,7 @@
         <v>43972</v>
       </c>
       <c r="AL153" s="57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="AT153" s="2" t="s">
@@ -18507,7 +18507,7 @@
         <v>43972</v>
       </c>
       <c r="AL155" s="57">
-        <f t="shared" ref="AL155:AL159" si="12">(AK155-AJ155)</f>
+        <f t="shared" ref="AL155:AL159" si="13">(AK155-AJ155)</f>
         <v>100</v>
       </c>
       <c r="AS155" s="2" t="s">
@@ -18637,7 +18637,7 @@
         <v>43972</v>
       </c>
       <c r="AL156" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AT156" s="2" t="s">
@@ -18764,7 +18764,7 @@
         <v>43972</v>
       </c>
       <c r="AL157" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AT157" s="2" t="s">
@@ -18891,7 +18891,7 @@
         <v>43972</v>
       </c>
       <c r="AL158" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AS158" s="2" t="s">
@@ -19017,7 +19017,7 @@
         <v>43972</v>
       </c>
       <c r="AL159" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AS159" s="27" t="s">
@@ -19170,7 +19170,7 @@
         <v>43976</v>
       </c>
       <c r="AL161" s="57">
-        <f t="shared" ref="AL161:AL163" si="13">(AK161-AJ161)</f>
+        <f t="shared" ref="AL161:AL163" si="14">(AK161-AJ161)</f>
         <v>104</v>
       </c>
       <c r="AS161" s="20" t="s">
@@ -19269,7 +19269,7 @@
         <v>43976</v>
       </c>
       <c r="AL162" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="AS162" s="20" t="s">
@@ -19365,7 +19365,7 @@
         <v>43976</v>
       </c>
       <c r="AL163" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="AS163" s="2" t="s">
@@ -19519,7 +19519,7 @@
         <v>43976</v>
       </c>
       <c r="AL165" s="57">
-        <f t="shared" ref="AL165:AL169" si="14">(AK165-AJ165)</f>
+        <f t="shared" ref="AL165:AL169" si="15">(AK165-AJ165)</f>
         <v>104</v>
       </c>
       <c r="AT165" s="2" t="s">
@@ -19646,7 +19646,7 @@
         <v>43976</v>
       </c>
       <c r="AL166" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
       <c r="AT166" s="2" t="s">
@@ -19773,7 +19773,7 @@
         <v>43976</v>
       </c>
       <c r="AL167" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
       <c r="AT167" s="2" t="s">
@@ -19900,7 +19900,7 @@
         <v>43976</v>
       </c>
       <c r="AL168" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
       <c r="AT168" s="2" t="s">
@@ -20024,7 +20024,7 @@
         <v>43976</v>
       </c>
       <c r="AL169" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
       <c r="AT169" s="2" t="s">
@@ -20190,7 +20190,7 @@
         <v>43976</v>
       </c>
       <c r="AL171" s="57">
-        <f t="shared" ref="AL171:AL175" si="15">(AK171-AJ171)</f>
+        <f t="shared" ref="AL171:AL175" si="16">(AK171-AJ171)</f>
         <v>104</v>
       </c>
       <c r="AT171" s="2" t="s">
@@ -20317,7 +20317,7 @@
         <v>43976</v>
       </c>
       <c r="AL172" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AT172" s="2" t="s">
@@ -20444,7 +20444,7 @@
         <v>43976</v>
       </c>
       <c r="AL173" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AT173" s="2" t="s">
@@ -20574,7 +20574,7 @@
         <v>43976</v>
       </c>
       <c r="AL174" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AT174" s="2" t="s">
@@ -20698,7 +20698,7 @@
         <v>43976</v>
       </c>
       <c r="AL175" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AT175" s="2" t="s">
@@ -20864,7 +20864,7 @@
         <v>43976</v>
       </c>
       <c r="AL177" s="57">
-        <f t="shared" ref="AL177:AL181" si="16">(AK177-AJ177)</f>
+        <f t="shared" ref="AL177:AL181" si="17">(AK177-AJ177)</f>
         <v>104</v>
       </c>
       <c r="AT177" s="2" t="s">
@@ -20991,7 +20991,7 @@
         <v>43976</v>
       </c>
       <c r="AL178" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="AT178" s="2" t="s">
@@ -21118,7 +21118,7 @@
         <v>43976</v>
       </c>
       <c r="AL179" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="AT179" s="2" t="s">
@@ -21245,7 +21245,7 @@
         <v>43976</v>
       </c>
       <c r="AL180" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="AT180" s="2" t="s">
@@ -21369,7 +21369,7 @@
         <v>43976</v>
       </c>
       <c r="AL181" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="AT181" s="2" t="s">
@@ -21536,7 +21536,7 @@
         <v>43976</v>
       </c>
       <c r="AL183" s="57">
-        <f t="shared" ref="AL183:AL187" si="17">(AK183-AJ183)</f>
+        <f t="shared" ref="AL183:AL187" si="18">(AK183-AJ183)</f>
         <v>104</v>
       </c>
       <c r="AT183" s="2" t="s">
@@ -21663,7 +21663,7 @@
         <v>43976</v>
       </c>
       <c r="AL184" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="AT184" s="2" t="s">
@@ -21790,7 +21790,7 @@
         <v>43976</v>
       </c>
       <c r="AL185" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="AT185" s="2" t="s">
@@ -21917,7 +21917,7 @@
         <v>43976</v>
       </c>
       <c r="AL186" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="AT186" s="2" t="s">
@@ -22041,7 +22041,7 @@
         <v>43976</v>
       </c>
       <c r="AL187" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="AS187" s="27" t="s">
@@ -22208,7 +22208,7 @@
         <v>43982</v>
       </c>
       <c r="AL189" s="57">
-        <f t="shared" ref="AL189:AL193" si="18">(AK189-AJ189)</f>
+        <f t="shared" ref="AL189:AL193" si="19">(AK189-AJ189)</f>
         <v>110</v>
       </c>
       <c r="AS189" s="2" t="s">
@@ -22339,7 +22339,7 @@
         <v>43982</v>
       </c>
       <c r="AL190" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="AT190" s="2" t="s">
@@ -22467,7 +22467,7 @@
         <v>43982</v>
       </c>
       <c r="AL191" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="AT191" s="2" t="s">
@@ -22595,7 +22595,7 @@
         <v>43982</v>
       </c>
       <c r="AL192" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="AT192" s="2" t="s">
@@ -22720,7 +22720,7 @@
         <v>43982</v>
       </c>
       <c r="AL193" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="AT193" s="2" t="s">
@@ -22887,7 +22887,7 @@
         <v>43982</v>
       </c>
       <c r="AL195" s="57">
-        <f t="shared" ref="AL195:AL199" si="19">(AK195-AJ195)</f>
+        <f t="shared" ref="AL195:AL199" si="20">(AK195-AJ195)</f>
         <v>110</v>
       </c>
       <c r="AS195" s="2" t="s">
@@ -23021,7 +23021,7 @@
         <v>43982</v>
       </c>
       <c r="AL196" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="AT196" s="2" t="s">
@@ -23152,7 +23152,7 @@
         <v>43982</v>
       </c>
       <c r="AL197" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="AT197" s="2" t="s">
@@ -23280,7 +23280,7 @@
         <v>43982</v>
       </c>
       <c r="AL198" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="AT198" s="2" t="s">
@@ -23405,7 +23405,7 @@
         <v>43982</v>
       </c>
       <c r="AL199" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
       <c r="AT199" s="2" t="s">
@@ -23575,7 +23575,7 @@
         <v>43982</v>
       </c>
       <c r="AL201" s="57">
-        <f t="shared" ref="AL201:AL205" si="20">(AK201-AJ201)</f>
+        <f t="shared" ref="AL201:AL205" si="21">(AK201-AJ201)</f>
         <v>110</v>
       </c>
       <c r="AS201" s="2" t="s">
@@ -23709,7 +23709,7 @@
         <v>43982</v>
       </c>
       <c r="AL202" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="AT202" s="2" t="s">
@@ -23840,7 +23840,7 @@
         <v>43982</v>
       </c>
       <c r="AL203" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="AT203" s="2" t="s">
@@ -23971,7 +23971,7 @@
         <v>43982</v>
       </c>
       <c r="AL204" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="AT204" s="2" t="s">
@@ -24096,7 +24096,7 @@
         <v>43982</v>
       </c>
       <c r="AL205" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="AT205" s="2" t="s">
@@ -24263,7 +24263,7 @@
         <v>43982</v>
       </c>
       <c r="AL207" s="57">
-        <f t="shared" ref="AL207:AL211" si="21">(AK207-AJ207)</f>
+        <f t="shared" ref="AL207:AL211" si="22">(AK207-AJ207)</f>
         <v>110</v>
       </c>
       <c r="AS207" s="20" t="s">
@@ -24391,7 +24391,7 @@
         <v>43982</v>
       </c>
       <c r="AL208" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="AS208" s="20" t="s">
@@ -24519,7 +24519,7 @@
         <v>43982</v>
       </c>
       <c r="AL209" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="AT209" s="2" t="s">
@@ -24644,7 +24644,7 @@
         <v>43982</v>
       </c>
       <c r="AL210" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="AT210" s="2" t="s">
@@ -24766,7 +24766,7 @@
         <v>43982</v>
       </c>
       <c r="AL211" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="AT211" s="2" t="s">

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BO$355</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1925,11 +1926,11 @@
   <dimension ref="A1:BO450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="AF1" activePane="bottomRight"/>
+      <pane xSplit="10125" ySplit="495" topLeftCell="P181" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
-      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomRight" activeCell="S188" sqref="S188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2370,7 @@
         <v>43375</v>
       </c>
       <c r="AL3" s="57">
-        <f t="shared" ref="AL3:AL5" si="0">(AK3-AJ3)/7</f>
+        <f>(AK3-AJ3)/7</f>
         <v>16.571428571428573</v>
       </c>
       <c r="AS3" s="10" t="s">
@@ -2498,7 +2499,7 @@
         <v>43375</v>
       </c>
       <c r="AL4" s="57">
-        <f t="shared" si="0"/>
+        <f>(AK4-AJ4)/7</f>
         <v>16.571428571428573</v>
       </c>
       <c r="AS4" s="10" t="s">
@@ -2627,7 +2628,7 @@
         <v>43375</v>
       </c>
       <c r="AL5" s="57">
-        <f t="shared" si="0"/>
+        <f>(AK5-AJ5)/7</f>
         <v>16.571428571428573</v>
       </c>
       <c r="AS5" s="3" t="s">
@@ -2793,7 +2794,7 @@
         <v>43375</v>
       </c>
       <c r="AL7" s="57">
-        <f t="shared" ref="AL3:AL41" si="1">(AK7-AJ7)</f>
+        <f t="shared" ref="AL7:AL41" si="0">(AK7-AJ7)</f>
         <v>116</v>
       </c>
       <c r="AS7" s="3" t="s">
@@ -2920,7 +2921,7 @@
         <v>43375</v>
       </c>
       <c r="AL8" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS8" s="3" t="s">
@@ -3049,7 +3050,7 @@
         <v>43375</v>
       </c>
       <c r="AL9" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS9" s="3" t="s">
@@ -3178,7 +3179,7 @@
         <v>43375</v>
       </c>
       <c r="AL10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS10" s="3" t="s">
@@ -3331,7 +3332,7 @@
         <v>43375</v>
       </c>
       <c r="AL12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS12" s="12" t="s">
@@ -3455,7 +3456,7 @@
         <v>43375</v>
       </c>
       <c r="AL13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS13" s="3"/>
@@ -3577,7 +3578,7 @@
         <v>43375</v>
       </c>
       <c r="AL14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS14" s="3" t="s">
@@ -3703,7 +3704,7 @@
         <v>43375</v>
       </c>
       <c r="AL15" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS15" s="14" t="s">
@@ -3829,7 +3830,7 @@
         <v>43375</v>
       </c>
       <c r="AL16" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS16" s="14" t="s">
@@ -3992,7 +3993,7 @@
         <v>43375</v>
       </c>
       <c r="AL18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS18" s="15"/>
@@ -4114,7 +4115,7 @@
         <v>43375</v>
       </c>
       <c r="AL19" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS19" s="15" t="s">
@@ -4240,7 +4241,7 @@
         <v>43375</v>
       </c>
       <c r="AL20" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS20" s="15"/>
@@ -4364,7 +4365,7 @@
         <v>43375</v>
       </c>
       <c r="AL21" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS21" s="16" t="s">
@@ -4529,7 +4530,7 @@
         <v>43375</v>
       </c>
       <c r="AL23" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS23" s="15" t="s">
@@ -4656,7 +4657,7 @@
         <v>43375</v>
       </c>
       <c r="AL24" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS24" s="15" t="s">
@@ -4782,7 +4783,7 @@
         <v>43375</v>
       </c>
       <c r="AL25" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS25" s="15"/>
@@ -4906,7 +4907,7 @@
         <v>43375</v>
       </c>
       <c r="AL26" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS26" s="15"/>
@@ -5074,7 +5075,7 @@
         <v>43375</v>
       </c>
       <c r="AL28" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS28" s="15"/>
@@ -5199,7 +5200,7 @@
         <v>43375</v>
       </c>
       <c r="AL29" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS29" s="15"/>
@@ -5323,7 +5324,7 @@
         <v>43375</v>
       </c>
       <c r="AL30" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS30" s="16" t="s">
@@ -5449,7 +5450,7 @@
         <v>43375</v>
       </c>
       <c r="AL31" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AT31" s="2" t="s">
@@ -5607,7 +5608,7 @@
         <v>43375</v>
       </c>
       <c r="AL33" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS33" s="15" t="s">
@@ -5713,7 +5714,7 @@
         <v>43375</v>
       </c>
       <c r="AL34" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS34" s="15" t="s">
@@ -5821,7 +5822,7 @@
         <v>43375</v>
       </c>
       <c r="AL35" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS35" s="15" t="s">
@@ -5929,7 +5930,7 @@
         <v>43375</v>
       </c>
       <c r="AL36" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="AS36" s="15" t="s">
@@ -6076,7 +6077,7 @@
         <v>43375</v>
       </c>
       <c r="AL38" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="BD38" s="2"/>
@@ -6178,7 +6179,7 @@
         <v>43375</v>
       </c>
       <c r="AL39" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="BD39" s="2"/>
@@ -6282,7 +6283,7 @@
         <v>43375</v>
       </c>
       <c r="AL40" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="BD40" s="2"/>
@@ -6386,7 +6387,7 @@
         <v>43375</v>
       </c>
       <c r="AL41" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="BD41" s="2"/>
@@ -11732,7 +11733,7 @@
         <v>43965</v>
       </c>
       <c r="AL94" s="57">
-        <f t="shared" ref="AL94:AL97" si="2">(AK94-AJ94)</f>
+        <f>(AK94-AJ94)</f>
         <v>92</v>
       </c>
       <c r="AT94" s="2" t="s">
@@ -11862,7 +11863,7 @@
         <v>43965</v>
       </c>
       <c r="AL95" s="57">
-        <f t="shared" si="2"/>
+        <f>(AK95-AJ95)</f>
         <v>92</v>
       </c>
       <c r="AS95" s="20" t="s">
@@ -11993,7 +11994,7 @@
         <v>43965</v>
       </c>
       <c r="AL96" s="57">
-        <f t="shared" si="2"/>
+        <f>(AK96-AJ96)</f>
         <v>92</v>
       </c>
       <c r="AS96" s="20" t="s">
@@ -12121,7 +12122,7 @@
         <v>43965</v>
       </c>
       <c r="AL97" s="57">
-        <f t="shared" si="2"/>
+        <f>(AK97-AJ97)</f>
         <v>92</v>
       </c>
       <c r="AT97" s="2" t="s">
@@ -12287,7 +12288,7 @@
         <v>43965</v>
       </c>
       <c r="AL99" s="57">
-        <f t="shared" ref="AL99:AL103" si="3">(AK99-AJ99)</f>
+        <f>(AK99-AJ99)</f>
         <v>92</v>
       </c>
       <c r="AS99" s="27" t="s">
@@ -12421,7 +12422,7 @@
         <v>43965</v>
       </c>
       <c r="AL100" s="57">
-        <f t="shared" si="3"/>
+        <f>(AK100-AJ100)</f>
         <v>92</v>
       </c>
       <c r="AT100" s="2" t="s">
@@ -12551,7 +12552,7 @@
         <v>43965</v>
       </c>
       <c r="AL101" s="57">
-        <f t="shared" si="3"/>
+        <f>(AK101-AJ101)</f>
         <v>92</v>
       </c>
       <c r="AT101" s="2" t="s">
@@ -12678,7 +12679,7 @@
         <v>43965</v>
       </c>
       <c r="AL102" s="57">
-        <f t="shared" si="3"/>
+        <f>(AK102-AJ102)</f>
         <v>92</v>
       </c>
       <c r="AT102" s="2" t="s">
@@ -12802,7 +12803,7 @@
         <v>43965</v>
       </c>
       <c r="AL103" s="57">
-        <f t="shared" si="3"/>
+        <f>(AK103-AJ103)</f>
         <v>92</v>
       </c>
       <c r="AT103" s="2" t="s">
@@ -12955,7 +12956,7 @@
         <v>43966</v>
       </c>
       <c r="AL105" s="57">
-        <f t="shared" ref="AL105:AL106" si="4">(AK105-AJ105)</f>
+        <f>(AK105-AJ105)</f>
         <v>93</v>
       </c>
       <c r="AS105" s="20" t="s">
@@ -13073,7 +13074,7 @@
         <v>43966</v>
       </c>
       <c r="AL106" s="57">
-        <f t="shared" si="4"/>
+        <f>(AK106-AJ106)</f>
         <v>93</v>
       </c>
       <c r="AS106" s="20" t="s">
@@ -13243,7 +13244,7 @@
         <v>43966</v>
       </c>
       <c r="AL108" s="57">
-        <f t="shared" ref="AL108:AL111" si="5">(AK108-AJ108)</f>
+        <f>(AK108-AJ108)</f>
         <v>93</v>
       </c>
       <c r="AS108" s="20" t="s">
@@ -13375,7 +13376,7 @@
         <v>43966</v>
       </c>
       <c r="AL109" s="57">
-        <f t="shared" si="5"/>
+        <f>(AK109-AJ109)</f>
         <v>93</v>
       </c>
       <c r="AS109" s="20" t="s">
@@ -13504,7 +13505,7 @@
         <v>43966</v>
       </c>
       <c r="AL110" s="57">
-        <f t="shared" si="5"/>
+        <f>(AK110-AJ110)</f>
         <v>93</v>
       </c>
       <c r="AS110" s="28" t="s">
@@ -13633,7 +13634,7 @@
         <v>43966</v>
       </c>
       <c r="AL111" s="57">
-        <f t="shared" si="5"/>
+        <f>(AK111-AJ111)</f>
         <v>93</v>
       </c>
       <c r="AS111" s="23" t="s">
@@ -13806,7 +13807,7 @@
         <v>43966</v>
       </c>
       <c r="AL113" s="57">
-        <f t="shared" ref="AL113:AL117" si="6">(AK113-AJ113)</f>
+        <f>(AK113-AJ113)</f>
         <v>93</v>
       </c>
       <c r="AT113" s="2" t="s">
@@ -13940,7 +13941,7 @@
         <v>43966</v>
       </c>
       <c r="AL114" s="57">
-        <f t="shared" si="6"/>
+        <f>(AK114-AJ114)</f>
         <v>93</v>
       </c>
       <c r="AT114" s="2" t="s">
@@ -14074,7 +14075,7 @@
         <v>43966</v>
       </c>
       <c r="AL115" s="57">
-        <f t="shared" si="6"/>
+        <f>(AK115-AJ115)</f>
         <v>93</v>
       </c>
       <c r="AT115" s="2" t="s">
@@ -14205,7 +14206,7 @@
         <v>43966</v>
       </c>
       <c r="AL116" s="57">
-        <f t="shared" si="6"/>
+        <f>(AK116-AJ116)</f>
         <v>93</v>
       </c>
       <c r="AS116" s="2" t="s">
@@ -14333,7 +14334,7 @@
         <v>43966</v>
       </c>
       <c r="AL117" s="57">
-        <f t="shared" si="6"/>
+        <f>(AK117-AJ117)</f>
         <v>93</v>
       </c>
       <c r="AS117" s="27" t="s">
@@ -14502,7 +14503,7 @@
         <v>43966</v>
       </c>
       <c r="AL119" s="57">
-        <f t="shared" ref="AL119:AL123" si="7">(AK119-AJ119)</f>
+        <f>(AK119-AJ119)</f>
         <v>93</v>
       </c>
       <c r="AT119" s="2" t="s">
@@ -14626,7 +14627,7 @@
         <v>43966</v>
       </c>
       <c r="AL120" s="57">
-        <f t="shared" si="7"/>
+        <f>(AK120-AJ120)</f>
         <v>93</v>
       </c>
       <c r="AT120" s="2" t="s">
@@ -14750,7 +14751,7 @@
         <v>43966</v>
       </c>
       <c r="AL121" s="57">
-        <f t="shared" si="7"/>
+        <f>(AK121-AJ121)</f>
         <v>93</v>
       </c>
       <c r="AT121" s="2" t="s">
@@ -14874,7 +14875,7 @@
         <v>43966</v>
       </c>
       <c r="AL122" s="57">
-        <f t="shared" si="7"/>
+        <f>(AK122-AJ122)</f>
         <v>93</v>
       </c>
       <c r="AT122" s="2" t="s">
@@ -14995,7 +14996,7 @@
         <v>43966</v>
       </c>
       <c r="AL123" s="57">
-        <f t="shared" si="7"/>
+        <f>(AK123-AJ123)</f>
         <v>93</v>
       </c>
       <c r="AT123" s="2" t="s">
@@ -15157,7 +15158,7 @@
         <v>43968</v>
       </c>
       <c r="AL125" s="57">
-        <f t="shared" ref="AL125:AL129" si="8">(AK125-AJ125)</f>
+        <f>(AK125-AJ125)</f>
         <v>95</v>
       </c>
       <c r="AT125" s="2" t="s">
@@ -15277,7 +15278,7 @@
         <v>43968</v>
       </c>
       <c r="AL126" s="57">
-        <f t="shared" si="8"/>
+        <f>(AK126-AJ126)</f>
         <v>95</v>
       </c>
       <c r="AT126" s="2" t="s">
@@ -15397,7 +15398,7 @@
         <v>43968</v>
       </c>
       <c r="AL127" s="57">
-        <f t="shared" si="8"/>
+        <f>(AK127-AJ127)</f>
         <v>95</v>
       </c>
       <c r="AT127" s="2" t="s">
@@ -15520,7 +15521,7 @@
         <v>43968</v>
       </c>
       <c r="AL128" s="57">
-        <f t="shared" si="8"/>
+        <f>(AK128-AJ128)</f>
         <v>95</v>
       </c>
       <c r="AS128" s="2" t="s">
@@ -15640,7 +15641,7 @@
         <v>43968</v>
       </c>
       <c r="AL129" s="57">
-        <f t="shared" si="8"/>
+        <f>(AK129-AJ129)</f>
         <v>95</v>
       </c>
       <c r="AS129" s="27" t="s">
@@ -15806,7 +15807,7 @@
         <v>43968</v>
       </c>
       <c r="AL131" s="57">
-        <f t="shared" ref="AL131:AL135" si="9">(AK131-AJ131)</f>
+        <f>(AK131-AJ131)</f>
         <v>95</v>
       </c>
       <c r="AT131" s="2" t="s">
@@ -15936,7 +15937,7 @@
         <v>43968</v>
       </c>
       <c r="AL132" s="57">
-        <f t="shared" si="9"/>
+        <f>(AK132-AJ132)</f>
         <v>95</v>
       </c>
       <c r="AT132" s="2" t="s">
@@ -16066,7 +16067,7 @@
         <v>43968</v>
       </c>
       <c r="AL133" s="57">
-        <f t="shared" si="9"/>
+        <f>(AK133-AJ133)</f>
         <v>95</v>
       </c>
       <c r="AT133" s="2" t="s">
@@ -16193,7 +16194,7 @@
         <v>43968</v>
       </c>
       <c r="AL134" s="57">
-        <f t="shared" si="9"/>
+        <f>(AK134-AJ134)</f>
         <v>95</v>
       </c>
       <c r="AT134" s="2" t="s">
@@ -16317,7 +16318,7 @@
         <v>43968</v>
       </c>
       <c r="AL135" s="57">
-        <f t="shared" si="9"/>
+        <f>(AK135-AJ135)</f>
         <v>95</v>
       </c>
       <c r="AS135" s="2" t="s">
@@ -16487,7 +16488,7 @@
         <v>43972</v>
       </c>
       <c r="AL137" s="57">
-        <f t="shared" ref="AL137:AL141" si="10">(AK137-AJ137)</f>
+        <f>(AK137-AJ137)</f>
         <v>100</v>
       </c>
       <c r="AT137" s="2" t="s">
@@ -16615,7 +16616,7 @@
         <v>43972</v>
       </c>
       <c r="AL138" s="57">
-        <f t="shared" si="10"/>
+        <f>(AK138-AJ138)</f>
         <v>100</v>
       </c>
       <c r="AT138" s="2" t="s">
@@ -16743,7 +16744,7 @@
         <v>43972</v>
       </c>
       <c r="AL139" s="57">
-        <f t="shared" si="10"/>
+        <f>(AK139-AJ139)</f>
         <v>100</v>
       </c>
       <c r="AS139" s="27" t="s">
@@ -16874,7 +16875,7 @@
         <v>43972</v>
       </c>
       <c r="AL140" s="57">
-        <f t="shared" si="10"/>
+        <f>(AK140-AJ140)</f>
         <v>100</v>
       </c>
       <c r="AS140" s="2" t="s">
@@ -17002,7 +17003,7 @@
         <v>43972</v>
       </c>
       <c r="AL141" s="57">
-        <f t="shared" si="10"/>
+        <f>(AK141-AJ141)</f>
         <v>100</v>
       </c>
       <c r="AT141" s="2" t="s">
@@ -17168,7 +17169,7 @@
         <v>43972</v>
       </c>
       <c r="AL143" s="57">
-        <f t="shared" ref="AL143:AL147" si="11">(AK143-AJ143)</f>
+        <f>(AK143-AJ143)</f>
         <v>100</v>
       </c>
       <c r="AT143" s="2" t="s">
@@ -17295,7 +17296,7 @@
         <v>43972</v>
       </c>
       <c r="AL144" s="57">
-        <f t="shared" si="11"/>
+        <f>(AK144-AJ144)</f>
         <v>100</v>
       </c>
       <c r="AT144" s="2" t="s">
@@ -17422,7 +17423,7 @@
         <v>43972</v>
       </c>
       <c r="AL145" s="57">
-        <f t="shared" si="11"/>
+        <f>(AK145-AJ145)</f>
         <v>100</v>
       </c>
       <c r="AT145" s="2" t="s">
@@ -17549,7 +17550,7 @@
         <v>43972</v>
       </c>
       <c r="AL146" s="57">
-        <f t="shared" si="11"/>
+        <f>(AK146-AJ146)</f>
         <v>100</v>
       </c>
       <c r="AT146" s="2" t="s">
@@ -17670,7 +17671,7 @@
         <v>43972</v>
       </c>
       <c r="AL147" s="57">
-        <f t="shared" si="11"/>
+        <f>(AK147-AJ147)</f>
         <v>100</v>
       </c>
       <c r="AT147" s="2" t="s">
@@ -17836,7 +17837,7 @@
         <v>43972</v>
       </c>
       <c r="AL149" s="57">
-        <f t="shared" ref="AL149:AL153" si="12">(AK149-AJ149)</f>
+        <f>(AK149-AJ149)</f>
         <v>100</v>
       </c>
       <c r="AS149" s="2" t="s">
@@ -17966,7 +17967,7 @@
         <v>43972</v>
       </c>
       <c r="AL150" s="57">
-        <f t="shared" si="12"/>
+        <f>(AK150-AJ150)</f>
         <v>100</v>
       </c>
       <c r="AT150" s="2" t="s">
@@ -18090,7 +18091,7 @@
         <v>43972</v>
       </c>
       <c r="AL151" s="57">
-        <f t="shared" si="12"/>
+        <f>(AK151-AJ151)</f>
         <v>100</v>
       </c>
       <c r="AT151" s="2" t="s">
@@ -18217,7 +18218,7 @@
         <v>43972</v>
       </c>
       <c r="AL152" s="57">
-        <f t="shared" si="12"/>
+        <f>(AK152-AJ152)</f>
         <v>100</v>
       </c>
       <c r="AT152" s="2" t="s">
@@ -18341,7 +18342,7 @@
         <v>43972</v>
       </c>
       <c r="AL153" s="57">
-        <f t="shared" si="12"/>
+        <f>(AK153-AJ153)</f>
         <v>100</v>
       </c>
       <c r="AT153" s="2" t="s">
@@ -18507,7 +18508,7 @@
         <v>43972</v>
       </c>
       <c r="AL155" s="57">
-        <f t="shared" ref="AL155:AL159" si="13">(AK155-AJ155)</f>
+        <f>(AK155-AJ155)</f>
         <v>100</v>
       </c>
       <c r="AS155" s="2" t="s">
@@ -18637,7 +18638,7 @@
         <v>43972</v>
       </c>
       <c r="AL156" s="57">
-        <f t="shared" si="13"/>
+        <f>(AK156-AJ156)</f>
         <v>100</v>
       </c>
       <c r="AT156" s="2" t="s">
@@ -18764,7 +18765,7 @@
         <v>43972</v>
       </c>
       <c r="AL157" s="57">
-        <f t="shared" si="13"/>
+        <f>(AK157-AJ157)</f>
         <v>100</v>
       </c>
       <c r="AT157" s="2" t="s">
@@ -18891,7 +18892,7 @@
         <v>43972</v>
       </c>
       <c r="AL158" s="57">
-        <f t="shared" si="13"/>
+        <f>(AK158-AJ158)</f>
         <v>100</v>
       </c>
       <c r="AS158" s="2" t="s">
@@ -19017,7 +19018,7 @@
         <v>43972</v>
       </c>
       <c r="AL159" s="57">
-        <f t="shared" si="13"/>
+        <f>(AK159-AJ159)</f>
         <v>100</v>
       </c>
       <c r="AS159" s="27" t="s">
@@ -19170,7 +19171,7 @@
         <v>43976</v>
       </c>
       <c r="AL161" s="57">
-        <f t="shared" ref="AL161:AL163" si="14">(AK161-AJ161)</f>
+        <f>(AK161-AJ161)</f>
         <v>104</v>
       </c>
       <c r="AS161" s="20" t="s">
@@ -19269,7 +19270,7 @@
         <v>43976</v>
       </c>
       <c r="AL162" s="57">
-        <f t="shared" si="14"/>
+        <f>(AK162-AJ162)</f>
         <v>104</v>
       </c>
       <c r="AS162" s="20" t="s">
@@ -19365,7 +19366,7 @@
         <v>43976</v>
       </c>
       <c r="AL163" s="57">
-        <f t="shared" si="14"/>
+        <f>(AK163-AJ163)</f>
         <v>104</v>
       </c>
       <c r="AS163" s="2" t="s">
@@ -19519,7 +19520,7 @@
         <v>43976</v>
       </c>
       <c r="AL165" s="57">
-        <f t="shared" ref="AL165:AL169" si="15">(AK165-AJ165)</f>
+        <f>(AK165-AJ165)</f>
         <v>104</v>
       </c>
       <c r="AT165" s="2" t="s">
@@ -19646,7 +19647,7 @@
         <v>43976</v>
       </c>
       <c r="AL166" s="57">
-        <f t="shared" si="15"/>
+        <f>(AK166-AJ166)</f>
         <v>104</v>
       </c>
       <c r="AT166" s="2" t="s">
@@ -19773,7 +19774,7 @@
         <v>43976</v>
       </c>
       <c r="AL167" s="57">
-        <f t="shared" si="15"/>
+        <f>(AK167-AJ167)</f>
         <v>104</v>
       </c>
       <c r="AT167" s="2" t="s">
@@ -19900,7 +19901,7 @@
         <v>43976</v>
       </c>
       <c r="AL168" s="57">
-        <f t="shared" si="15"/>
+        <f>(AK168-AJ168)</f>
         <v>104</v>
       </c>
       <c r="AT168" s="2" t="s">
@@ -20024,7 +20025,7 @@
         <v>43976</v>
       </c>
       <c r="AL169" s="57">
-        <f t="shared" si="15"/>
+        <f>(AK169-AJ169)</f>
         <v>104</v>
       </c>
       <c r="AT169" s="2" t="s">
@@ -20190,7 +20191,7 @@
         <v>43976</v>
       </c>
       <c r="AL171" s="57">
-        <f t="shared" ref="AL171:AL175" si="16">(AK171-AJ171)</f>
+        <f>(AK171-AJ171)</f>
         <v>104</v>
       </c>
       <c r="AT171" s="2" t="s">
@@ -20317,7 +20318,7 @@
         <v>43976</v>
       </c>
       <c r="AL172" s="57">
-        <f t="shared" si="16"/>
+        <f>(AK172-AJ172)</f>
         <v>104</v>
       </c>
       <c r="AT172" s="2" t="s">
@@ -20444,7 +20445,7 @@
         <v>43976</v>
       </c>
       <c r="AL173" s="57">
-        <f t="shared" si="16"/>
+        <f>(AK173-AJ173)</f>
         <v>104</v>
       </c>
       <c r="AT173" s="2" t="s">
@@ -20574,7 +20575,7 @@
         <v>43976</v>
       </c>
       <c r="AL174" s="57">
-        <f t="shared" si="16"/>
+        <f>(AK174-AJ174)</f>
         <v>104</v>
       </c>
       <c r="AT174" s="2" t="s">
@@ -20698,7 +20699,7 @@
         <v>43976</v>
       </c>
       <c r="AL175" s="57">
-        <f t="shared" si="16"/>
+        <f>(AK175-AJ175)</f>
         <v>104</v>
       </c>
       <c r="AT175" s="2" t="s">
@@ -20864,7 +20865,7 @@
         <v>43976</v>
       </c>
       <c r="AL177" s="57">
-        <f t="shared" ref="AL177:AL181" si="17">(AK177-AJ177)</f>
+        <f>(AK177-AJ177)</f>
         <v>104</v>
       </c>
       <c r="AT177" s="2" t="s">
@@ -20991,7 +20992,7 @@
         <v>43976</v>
       </c>
       <c r="AL178" s="57">
-        <f t="shared" si="17"/>
+        <f>(AK178-AJ178)</f>
         <v>104</v>
       </c>
       <c r="AT178" s="2" t="s">
@@ -21118,7 +21119,7 @@
         <v>43976</v>
       </c>
       <c r="AL179" s="57">
-        <f t="shared" si="17"/>
+        <f>(AK179-AJ179)</f>
         <v>104</v>
       </c>
       <c r="AT179" s="2" t="s">
@@ -21245,7 +21246,7 @@
         <v>43976</v>
       </c>
       <c r="AL180" s="57">
-        <f t="shared" si="17"/>
+        <f>(AK180-AJ180)</f>
         <v>104</v>
       </c>
       <c r="AT180" s="2" t="s">
@@ -21369,7 +21370,7 @@
         <v>43976</v>
       </c>
       <c r="AL181" s="57">
-        <f t="shared" si="17"/>
+        <f>(AK181-AJ181)</f>
         <v>104</v>
       </c>
       <c r="AT181" s="2" t="s">
@@ -21536,7 +21537,7 @@
         <v>43976</v>
       </c>
       <c r="AL183" s="57">
-        <f t="shared" ref="AL183:AL187" si="18">(AK183-AJ183)</f>
+        <f>(AK183-AJ183)</f>
         <v>104</v>
       </c>
       <c r="AT183" s="2" t="s">
@@ -21663,7 +21664,7 @@
         <v>43976</v>
       </c>
       <c r="AL184" s="57">
-        <f t="shared" si="18"/>
+        <f>(AK184-AJ184)</f>
         <v>104</v>
       </c>
       <c r="AT184" s="2" t="s">
@@ -21790,7 +21791,7 @@
         <v>43976</v>
       </c>
       <c r="AL185" s="57">
-        <f t="shared" si="18"/>
+        <f>(AK185-AJ185)</f>
         <v>104</v>
       </c>
       <c r="AT185" s="2" t="s">
@@ -21917,7 +21918,7 @@
         <v>43976</v>
       </c>
       <c r="AL186" s="57">
-        <f t="shared" si="18"/>
+        <f>(AK186-AJ186)</f>
         <v>104</v>
       </c>
       <c r="AT186" s="2" t="s">
@@ -22041,7 +22042,7 @@
         <v>43976</v>
       </c>
       <c r="AL187" s="57">
-        <f t="shared" si="18"/>
+        <f>(AK187-AJ187)</f>
         <v>104</v>
       </c>
       <c r="AS187" s="27" t="s">
@@ -22164,10 +22165,10 @@
         <v>1</v>
       </c>
       <c r="S189" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T189" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U189" s="2">
         <v>2</v>
@@ -22208,7 +22209,7 @@
         <v>43982</v>
       </c>
       <c r="AL189" s="57">
-        <f t="shared" ref="AL189:AL193" si="19">(AK189-AJ189)</f>
+        <f>(AK189-AJ189)</f>
         <v>110</v>
       </c>
       <c r="AS189" s="2" t="s">
@@ -22295,7 +22296,7 @@
         <v>1</v>
       </c>
       <c r="S190" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T190" s="2">
         <v>0</v>
@@ -22339,7 +22340,7 @@
         <v>43982</v>
       </c>
       <c r="AL190" s="57">
-        <f t="shared" si="19"/>
+        <f>(AK190-AJ190)</f>
         <v>110</v>
       </c>
       <c r="AT190" s="2" t="s">
@@ -22423,7 +22424,7 @@
         <v>1</v>
       </c>
       <c r="S191" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T191" s="2">
         <v>0</v>
@@ -22467,7 +22468,7 @@
         <v>43982</v>
       </c>
       <c r="AL191" s="57">
-        <f t="shared" si="19"/>
+        <f>(AK191-AJ191)</f>
         <v>110</v>
       </c>
       <c r="AT191" s="2" t="s">
@@ -22551,7 +22552,7 @@
         <v>1</v>
       </c>
       <c r="S192" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T192" s="2">
         <v>0</v>
@@ -22595,7 +22596,7 @@
         <v>43982</v>
       </c>
       <c r="AL192" s="57">
-        <f t="shared" si="19"/>
+        <f>(AK192-AJ192)</f>
         <v>110</v>
       </c>
       <c r="AT192" s="2" t="s">
@@ -22679,7 +22680,7 @@
         <v>1</v>
       </c>
       <c r="S193" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T193" s="2">
         <v>0</v>
@@ -22720,7 +22721,7 @@
         <v>43982</v>
       </c>
       <c r="AL193" s="57">
-        <f t="shared" si="19"/>
+        <f>(AK193-AJ193)</f>
         <v>110</v>
       </c>
       <c r="AT193" s="2" t="s">
@@ -22887,7 +22888,7 @@
         <v>43982</v>
       </c>
       <c r="AL195" s="57">
-        <f t="shared" ref="AL195:AL199" si="20">(AK195-AJ195)</f>
+        <f>(AK195-AJ195)</f>
         <v>110</v>
       </c>
       <c r="AS195" s="2" t="s">
@@ -23021,7 +23022,7 @@
         <v>43982</v>
       </c>
       <c r="AL196" s="57">
-        <f t="shared" si="20"/>
+        <f>(AK196-AJ196)</f>
         <v>110</v>
       </c>
       <c r="AT196" s="2" t="s">
@@ -23152,7 +23153,7 @@
         <v>43982</v>
       </c>
       <c r="AL197" s="57">
-        <f t="shared" si="20"/>
+        <f>(AK197-AJ197)</f>
         <v>110</v>
       </c>
       <c r="AT197" s="2" t="s">
@@ -23280,7 +23281,7 @@
         <v>43982</v>
       </c>
       <c r="AL198" s="57">
-        <f t="shared" si="20"/>
+        <f>(AK198-AJ198)</f>
         <v>110</v>
       </c>
       <c r="AT198" s="2" t="s">
@@ -23405,7 +23406,7 @@
         <v>43982</v>
       </c>
       <c r="AL199" s="57">
-        <f t="shared" si="20"/>
+        <f>(AK199-AJ199)</f>
         <v>110</v>
       </c>
       <c r="AT199" s="2" t="s">
@@ -23575,7 +23576,7 @@
         <v>43982</v>
       </c>
       <c r="AL201" s="57">
-        <f t="shared" ref="AL201:AL205" si="21">(AK201-AJ201)</f>
+        <f>(AK201-AJ201)</f>
         <v>110</v>
       </c>
       <c r="AS201" s="2" t="s">
@@ -23709,7 +23710,7 @@
         <v>43982</v>
       </c>
       <c r="AL202" s="57">
-        <f t="shared" si="21"/>
+        <f>(AK202-AJ202)</f>
         <v>110</v>
       </c>
       <c r="AT202" s="2" t="s">
@@ -23840,7 +23841,7 @@
         <v>43982</v>
       </c>
       <c r="AL203" s="57">
-        <f t="shared" si="21"/>
+        <f>(AK203-AJ203)</f>
         <v>110</v>
       </c>
       <c r="AT203" s="2" t="s">
@@ -23971,7 +23972,7 @@
         <v>43982</v>
       </c>
       <c r="AL204" s="57">
-        <f t="shared" si="21"/>
+        <f>(AK204-AJ204)</f>
         <v>110</v>
       </c>
       <c r="AT204" s="2" t="s">
@@ -24096,7 +24097,7 @@
         <v>43982</v>
       </c>
       <c r="AL205" s="57">
-        <f t="shared" si="21"/>
+        <f>(AK205-AJ205)</f>
         <v>110</v>
       </c>
       <c r="AT205" s="2" t="s">
@@ -24263,7 +24264,7 @@
         <v>43982</v>
       </c>
       <c r="AL207" s="57">
-        <f t="shared" ref="AL207:AL211" si="22">(AK207-AJ207)</f>
+        <f>(AK207-AJ207)</f>
         <v>110</v>
       </c>
       <c r="AS207" s="20" t="s">
@@ -24391,7 +24392,7 @@
         <v>43982</v>
       </c>
       <c r="AL208" s="57">
-        <f t="shared" si="22"/>
+        <f>(AK208-AJ208)</f>
         <v>110</v>
       </c>
       <c r="AS208" s="20" t="s">
@@ -24519,7 +24520,7 @@
         <v>43982</v>
       </c>
       <c r="AL209" s="57">
-        <f t="shared" si="22"/>
+        <f>(AK209-AJ209)</f>
         <v>110</v>
       </c>
       <c r="AT209" s="2" t="s">
@@ -24644,7 +24645,7 @@
         <v>43982</v>
       </c>
       <c r="AL210" s="57">
-        <f t="shared" si="22"/>
+        <f>(AK210-AJ210)</f>
         <v>110</v>
       </c>
       <c r="AT210" s="2" t="s">
@@ -24766,7 +24767,7 @@
         <v>43982</v>
       </c>
       <c r="AL211" s="57">
-        <f t="shared" si="22"/>
+        <f>(AK211-AJ211)</f>
         <v>110</v>
       </c>
       <c r="AT211" s="2" t="s">

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="435">
   <si>
     <t>experiment</t>
   </si>
@@ -1295,6 +1295,45 @@
   </si>
   <si>
     <t>cam_um_per_pix</t>
+  </si>
+  <si>
+    <t>M4264</t>
+  </si>
+  <si>
+    <t>A1_1cont1</t>
+  </si>
+  <si>
+    <t>9_5_24</t>
+  </si>
+  <si>
+    <t>A1_05cont2</t>
+  </si>
+  <si>
+    <t>A1_4cont3</t>
+  </si>
+  <si>
+    <t>A1_2cont4</t>
+  </si>
+  <si>
+    <t>110:25:210</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>prairie view messed up powers. Bidirectional was clicked in z stack, so powers went like sawtooth and for same height powers alternate, other than middle slice</t>
+  </si>
+  <si>
+    <t>A1_1cont5</t>
+  </si>
+  <si>
+    <t>A1_05cont6</t>
+  </si>
+  <si>
+    <t>A1_4cont7</t>
+  </si>
+  <si>
+    <t>A1_2cont8</t>
   </si>
 </sst>
 </file>
@@ -1919,11 +1958,11 @@
   <dimension ref="A1:BO450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10125" ySplit="495" topLeftCell="A100" activePane="bottomRight"/>
-      <selection sqref="A1:XFD1"/>
+      <pane xSplit="9375" ySplit="495" topLeftCell="AL334" activePane="bottomLeft"/>
+      <selection activeCell="A38" sqref="A38:XFD41"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
-      <selection pane="bottomRight" activeCell="L109" sqref="L109"/>
+      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
+      <selection pane="bottomRight" activeCell="AS348" sqref="AS348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33644,84 +33683,675 @@
       <c r="A347" s="1">
         <v>346</v>
       </c>
+      <c r="H347" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="AL347" s="57"/>
     </row>
     <row r="348" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
+      <c r="B348" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E348" s="2">
+        <v>1</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J348" s="5">
+        <v>1</v>
+      </c>
+      <c r="K348" s="5">
+        <v>0</v>
+      </c>
+      <c r="N348" s="5">
+        <v>5</v>
+      </c>
+      <c r="O348" s="5">
+        <v>1</v>
+      </c>
+      <c r="R348" s="5">
+        <v>1</v>
+      </c>
+      <c r="S348" s="5">
+        <v>3</v>
+      </c>
+      <c r="V348" s="5">
+        <v>1</v>
+      </c>
+      <c r="W348" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y348" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z348" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC348" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF348" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG348" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH348" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI348" s="2">
+        <v>511</v>
+      </c>
       <c r="AL348" s="57"/>
+      <c r="AS348" s="2" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="349" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
+      <c r="B349" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E349" s="2">
+        <v>2</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J349" s="5">
+        <v>1</v>
+      </c>
+      <c r="K349" s="5">
+        <v>0</v>
+      </c>
+      <c r="N349" s="5">
+        <v>5</v>
+      </c>
+      <c r="O349" s="5">
+        <v>1</v>
+      </c>
+      <c r="R349" s="5">
+        <v>1</v>
+      </c>
+      <c r="S349" s="5">
+        <v>3</v>
+      </c>
+      <c r="V349" s="5">
+        <v>1</v>
+      </c>
+      <c r="W349" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y349" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z349" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC349" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF349" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG349" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH349" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI349" s="2">
+        <v>511</v>
+      </c>
       <c r="AL349" s="57"/>
     </row>
     <row r="350" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
+      <c r="B350" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E350" s="2">
+        <v>3</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J350" s="5">
+        <v>1</v>
+      </c>
+      <c r="K350" s="5">
+        <v>0</v>
+      </c>
+      <c r="N350" s="5">
+        <v>5</v>
+      </c>
+      <c r="O350" s="5">
+        <v>1</v>
+      </c>
+      <c r="R350" s="5">
+        <v>1</v>
+      </c>
+      <c r="S350" s="5">
+        <v>3</v>
+      </c>
+      <c r="V350" s="5">
+        <v>1</v>
+      </c>
+      <c r="W350" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y350" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z350" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC350" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF350" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG350" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH350" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI350" s="2">
+        <v>511</v>
+      </c>
       <c r="AL350" s="57"/>
     </row>
     <row r="351" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
+      <c r="B351" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E351" s="2">
+        <v>4</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J351" s="5">
+        <v>1</v>
+      </c>
+      <c r="K351" s="5">
+        <v>0</v>
+      </c>
+      <c r="N351" s="5">
+        <v>5</v>
+      </c>
+      <c r="O351" s="5">
+        <v>1</v>
+      </c>
+      <c r="R351" s="5">
+        <v>1</v>
+      </c>
+      <c r="S351" s="5">
+        <v>3</v>
+      </c>
+      <c r="V351" s="5">
+        <v>1</v>
+      </c>
+      <c r="W351" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y351" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z351" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC351" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF351" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG351" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH351" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI351" s="2">
+        <v>511</v>
+      </c>
       <c r="AL351" s="57"/>
     </row>
     <row r="352" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
+      <c r="H352" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="AL352" s="57"/>
     </row>
     <row r="353" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
+      <c r="B353" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E353" s="2">
+        <v>5</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J353" s="5">
+        <v>2</v>
+      </c>
+      <c r="K353" s="5">
+        <v>1</v>
+      </c>
+      <c r="N353" s="5">
+        <v>5</v>
+      </c>
+      <c r="O353" s="5">
+        <v>1</v>
+      </c>
+      <c r="R353" s="5">
+        <v>1</v>
+      </c>
+      <c r="S353" s="5">
+        <v>3</v>
+      </c>
+      <c r="V353" s="5">
+        <v>1</v>
+      </c>
+      <c r="W353" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y353" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z353" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC353" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF353" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG353" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH353" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI353" s="2">
+        <v>511</v>
+      </c>
       <c r="AL353" s="57"/>
     </row>
     <row r="354" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
+      <c r="B354" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E354" s="2">
+        <v>6</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J354" s="5">
+        <v>2</v>
+      </c>
+      <c r="K354" s="5">
+        <v>1</v>
+      </c>
+      <c r="N354" s="5">
+        <v>5</v>
+      </c>
+      <c r="O354" s="5">
+        <v>1</v>
+      </c>
+      <c r="R354" s="5">
+        <v>1</v>
+      </c>
+      <c r="S354" s="5">
+        <v>3</v>
+      </c>
+      <c r="V354" s="5">
+        <v>1</v>
+      </c>
+      <c r="W354" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y354" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z354" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC354" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF354" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG354" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH354" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI354" s="2">
+        <v>511</v>
+      </c>
       <c r="AL354" s="57"/>
     </row>
     <row r="355" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
+      <c r="B355" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E355" s="2">
+        <v>7</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J355" s="5">
+        <v>2</v>
+      </c>
+      <c r="K355" s="5">
+        <v>1</v>
+      </c>
+      <c r="N355" s="5">
+        <v>5</v>
+      </c>
+      <c r="O355" s="5">
+        <v>1</v>
+      </c>
+      <c r="R355" s="5">
+        <v>1</v>
+      </c>
+      <c r="S355" s="5">
+        <v>3</v>
+      </c>
+      <c r="V355" s="5">
+        <v>1</v>
+      </c>
+      <c r="W355" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y355" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z355" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC355" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF355" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG355" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH355" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI355" s="2">
+        <v>511</v>
+      </c>
       <c r="AL355" s="57"/>
     </row>
     <row r="356" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E356" s="2">
+        <v>8</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J356" s="5">
+        <v>2</v>
+      </c>
+      <c r="K356" s="5">
+        <v>1</v>
+      </c>
+      <c r="N356" s="5">
+        <v>5</v>
+      </c>
+      <c r="O356" s="5">
+        <v>1</v>
+      </c>
+      <c r="R356" s="5">
+        <v>1</v>
+      </c>
+      <c r="S356" s="5">
+        <v>3</v>
+      </c>
+      <c r="V356" s="5">
+        <v>1</v>
+      </c>
+      <c r="W356" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y356" s="5">
+        <v>3456</v>
+      </c>
+      <c r="Z356" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC356" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG356" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI356" s="2">
+        <v>511</v>
+      </c>
       <c r="AL356" s="57"/>
     </row>
     <row r="357" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
       <c r="AL357" s="57"/>
     </row>
     <row r="358" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
       <c r="AL358" s="57"/>
     </row>
     <row r="359" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
       <c r="AL359" s="57"/>
     </row>
     <row r="360" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
       <c r="AL360" s="57"/>
     </row>
     <row r="361" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
       <c r="AL361" s="57"/>
     </row>
     <row r="362" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
       <c r="AL362" s="57"/>
     </row>
     <row r="363" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
       <c r="AL363" s="57"/>
     </row>
     <row r="364" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
       <c r="AL364" s="57"/>
     </row>
     <row r="365" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
       <c r="AL365" s="57"/>
     </row>
     <row r="366" spans="1:38" x14ac:dyDescent="0.25">

--- a/AC_data_list_all.xlsx
+++ b/AC_data_list_all.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="445">
   <si>
     <t>experiment</t>
   </si>
@@ -1324,16 +1324,46 @@
     <t>prairie view messed up powers. Bidirectional was clicked in z stack, so powers went like sawtooth and for same height powers alternate, other than middle slice</t>
   </si>
   <si>
-    <t>A1_1cont5</t>
-  </si>
-  <si>
     <t>A1_05cont6</t>
   </si>
   <si>
-    <t>A1_4cont7</t>
-  </si>
-  <si>
-    <t>A1_2cont8</t>
+    <t>A1_2cont5</t>
+  </si>
+  <si>
+    <t>A1_1cont7</t>
+  </si>
+  <si>
+    <t>A1_4cont8</t>
+  </si>
+  <si>
+    <t>M4265</t>
+  </si>
+  <si>
+    <t>M4266</t>
+  </si>
+  <si>
+    <t>100:25:200</t>
+  </si>
+  <si>
+    <t>9_21_24</t>
+  </si>
+  <si>
+    <t>9_18_24</t>
+  </si>
+  <si>
+    <t>laser power dropped and was fluctuating through all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser power dropped and was fluctuating </t>
+  </si>
+  <si>
+    <t>manually was resetting laser</t>
+  </si>
+  <si>
+    <t>9_19_24</t>
+  </si>
+  <si>
+    <t>almost no tuned cells in these dsets</t>
   </si>
 </sst>
 </file>
@@ -1958,11 +1988,11 @@
   <dimension ref="A1:BO450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9375" ySplit="495" topLeftCell="AL334" activePane="bottomLeft"/>
+      <pane xSplit="18810" ySplit="495" topLeftCell="AD148" activePane="bottomRight"/>
       <selection activeCell="A38" sqref="A38:XFD41"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
-      <selection pane="bottomRight" activeCell="AS348" sqref="AS348"/>
+      <selection pane="bottomLeft" activeCell="P72" sqref="P72"/>
+      <selection pane="bottomRight" activeCell="AF179" sqref="AF179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,8 +2856,8 @@
         <v>43375</v>
       </c>
       <c r="AL7" s="57">
-        <f t="shared" ref="AL7:AL41" si="0">(AK7-AJ7)</f>
-        <v>116</v>
+        <f t="shared" ref="AL7:AL41" si="0">(AK7-AJ7)/7</f>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>105</v>
@@ -2954,7 +2984,7 @@
       </c>
       <c r="AL8" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>106</v>
@@ -3083,7 +3113,7 @@
       </c>
       <c r="AL9" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>5</v>
@@ -3212,7 +3242,7 @@
       </c>
       <c r="AL10" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>5</v>
@@ -3365,7 +3395,7 @@
       </c>
       <c r="AL12" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS12" s="12" t="s">
         <v>108</v>
@@ -3489,7 +3519,7 @@
       </c>
       <c r="AL13" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS13" s="3"/>
       <c r="AT13" s="2" t="s">
@@ -3611,7 +3641,7 @@
       </c>
       <c r="AL14" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>110</v>
@@ -3737,7 +3767,7 @@
       </c>
       <c r="AL15" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS15" s="14" t="s">
         <v>111</v>
@@ -3863,7 +3893,7 @@
       </c>
       <c r="AL16" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS16" s="14" t="s">
         <v>111</v>
@@ -4026,7 +4056,7 @@
       </c>
       <c r="AL18" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS18" s="15"/>
       <c r="AT18" s="2" t="s">
@@ -4148,7 +4178,7 @@
       </c>
       <c r="AL19" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS19" s="15" t="s">
         <v>112</v>
@@ -4274,7 +4304,7 @@
       </c>
       <c r="AL20" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS20" s="15"/>
       <c r="AT20" s="2" t="s">
@@ -4398,7 +4428,7 @@
       </c>
       <c r="AL21" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS21" s="16" t="s">
         <v>113</v>
@@ -4563,7 +4593,7 @@
       </c>
       <c r="AL23" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS23" s="15" t="s">
         <v>115</v>
@@ -4690,7 +4720,7 @@
       </c>
       <c r="AL24" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS24" s="15" t="s">
         <v>115</v>
@@ -4816,7 +4846,7 @@
       </c>
       <c r="AL25" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS25" s="15"/>
       <c r="AT25" s="2" t="s">
@@ -4940,7 +4970,7 @@
       </c>
       <c r="AL26" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS26" s="15"/>
       <c r="AT26" s="2" t="s">
@@ -5108,7 +5138,7 @@
       </c>
       <c r="AL28" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS28" s="15"/>
       <c r="AT28" s="2" t="s">
@@ -5233,7 +5263,7 @@
       </c>
       <c r="AL29" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS29" s="15"/>
       <c r="AT29" s="2" t="s">
@@ -5357,7 +5387,7 @@
       </c>
       <c r="AL30" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS30" s="16" t="s">
         <v>118</v>
@@ -5483,7 +5513,7 @@
       </c>
       <c r="AL31" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AT31" s="2" t="s">
         <v>98</v>
@@ -5641,7 +5671,7 @@
       </c>
       <c r="AL33" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS33" s="15" t="s">
         <v>120</v>
@@ -5747,7 +5777,7 @@
       </c>
       <c r="AL34" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS34" s="15" t="s">
         <v>120</v>
@@ -5855,7 +5885,7 @@
       </c>
       <c r="AL35" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS35" s="15" t="s">
         <v>337</v>
@@ -5963,7 +5993,7 @@
       </c>
       <c r="AL36" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="AS36" s="15" t="s">
         <v>337</v>
@@ -6110,7 +6140,7 @@
       </c>
       <c r="AL38" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="BD38" s="2"/>
       <c r="BE38" s="2"/>
@@ -6212,7 +6242,7 @@
       </c>
       <c r="AL39" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="BD39" s="2"/>
       <c r="BE39" s="2"/>
@@ -6316,7 +6346,7 @@
       </c>
       <c r="AL40" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="BD40" s="2"/>
       <c r="BE40" s="2"/>
@@ -6420,7 +6450,7 @@
       </c>
       <c r="AL41" s="57">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>16.571428571428573</v>
       </c>
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
@@ -10631,6 +10661,7 @@
       <c r="AI83" s="2">
         <v>637</v>
       </c>
+      <c r="AJ83" s="8"/>
       <c r="AK83" s="8">
         <v>43424</v>
       </c>
@@ -11635,8 +11666,8 @@
         <v>43965</v>
       </c>
       <c r="AL93" s="57">
-        <f>(AK93-AJ93)</f>
-        <v>92</v>
+        <f t="shared" ref="AL93:AL156" si="1">(AK93-AJ93)/7</f>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT93" s="2" t="s">
         <v>147</v>
@@ -11765,8 +11796,8 @@
         <v>43965</v>
       </c>
       <c r="AL94" s="57">
-        <f>(AK94-AJ94)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT94" s="2" t="s">
         <v>147</v>
@@ -11895,8 +11926,8 @@
         <v>43965</v>
       </c>
       <c r="AL95" s="57">
-        <f>(AK95-AJ95)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AS95" s="20" t="s">
         <v>152</v>
@@ -12026,8 +12057,8 @@
         <v>43965</v>
       </c>
       <c r="AL96" s="57">
-        <f>(AK96-AJ96)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AS96" s="20" t="s">
         <v>153</v>
@@ -12154,8 +12185,8 @@
         <v>43965</v>
       </c>
       <c r="AL97" s="57">
-        <f>(AK97-AJ97)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT97" s="2" t="s">
         <v>147</v>
@@ -12320,8 +12351,8 @@
         <v>43965</v>
       </c>
       <c r="AL99" s="57">
-        <f>(AK99-AJ99)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AS99" s="27" t="s">
         <v>155</v>
@@ -12454,8 +12485,8 @@
         <v>43965</v>
       </c>
       <c r="AL100" s="57">
-        <f>(AK100-AJ100)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT100" s="2" t="s">
         <v>147</v>
@@ -12584,8 +12615,8 @@
         <v>43965</v>
       </c>
       <c r="AL101" s="57">
-        <f>(AK101-AJ101)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT101" s="2" t="s">
         <v>147</v>
@@ -12711,8 +12742,8 @@
         <v>43965</v>
       </c>
       <c r="AL102" s="57">
-        <f>(AK102-AJ102)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT102" s="2" t="s">
         <v>147</v>
@@ -12835,8 +12866,8 @@
         <v>43965</v>
       </c>
       <c r="AL103" s="57">
-        <f>(AK103-AJ103)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="AT103" s="2" t="s">
         <v>147</v>
@@ -12988,8 +13019,8 @@
         <v>43966</v>
       </c>
       <c r="AL105" s="57">
-        <f>(AK105-AJ105)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS105" s="20" t="s">
         <v>159</v>
@@ -13106,8 +13137,8 @@
         <v>43966</v>
       </c>
       <c r="AL106" s="57">
-        <f>(AK106-AJ106)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS106" s="20" t="s">
         <v>159</v>
@@ -13276,8 +13307,8 @@
         <v>43966</v>
       </c>
       <c r="AL108" s="57">
-        <f>(AK108-AJ108)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS108" s="20" t="s">
         <v>164</v>
@@ -13408,8 +13439,8 @@
         <v>43966</v>
       </c>
       <c r="AL109" s="57">
-        <f>(AK109-AJ109)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS109" s="20" t="s">
         <v>166</v>
@@ -13537,8 +13568,8 @@
         <v>43966</v>
       </c>
       <c r="AL110" s="57">
-        <f>(AK110-AJ110)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS110" s="28" t="s">
         <v>332</v>
@@ -13666,8 +13697,8 @@
         <v>43966</v>
       </c>
       <c r="AL111" s="57">
-        <f>(AK111-AJ111)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS111" s="23" t="s">
         <v>167</v>
@@ -13839,8 +13870,8 @@
         <v>43966</v>
       </c>
       <c r="AL113" s="57">
-        <f>(AK113-AJ113)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT113" s="2" t="s">
         <v>160</v>
@@ -13973,8 +14004,8 @@
         <v>43966</v>
       </c>
       <c r="AL114" s="57">
-        <f>(AK114-AJ114)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT114" s="2" t="s">
         <v>160</v>
@@ -14107,8 +14138,8 @@
         <v>43966</v>
       </c>
       <c r="AL115" s="57">
-        <f>(AK115-AJ115)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT115" s="2" t="s">
         <v>160</v>
@@ -14238,8 +14269,8 @@
         <v>43966</v>
       </c>
       <c r="AL116" s="57">
-        <f>(AK116-AJ116)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS116" s="2" t="s">
         <v>333</v>
@@ -14366,8 +14397,8 @@
         <v>43966</v>
       </c>
       <c r="AL117" s="57">
-        <f>(AK117-AJ117)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AS117" s="27" t="s">
         <v>170</v>
@@ -14535,8 +14566,8 @@
         <v>43966</v>
       </c>
       <c r="AL119" s="57">
-        <f>(AK119-AJ119)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT119" s="2" t="s">
         <v>160</v>
@@ -14659,8 +14690,8 @@
         <v>43966</v>
       </c>
       <c r="AL120" s="57">
-        <f>(AK120-AJ120)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT120" s="2" t="s">
         <v>160</v>
@@ -14783,8 +14814,8 @@
         <v>43966</v>
       </c>
       <c r="AL121" s="57">
-        <f>(AK121-AJ121)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT121" s="2" t="s">
         <v>160</v>
@@ -14907,8 +14938,8 @@
         <v>43966</v>
       </c>
       <c r="AL122" s="57">
-        <f>(AK122-AJ122)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT122" s="2" t="s">
         <v>160</v>
@@ -15028,8 +15059,8 @@
         <v>43966</v>
       </c>
       <c r="AL123" s="57">
-        <f>(AK123-AJ123)</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>13.285714285714286</v>
       </c>
       <c r="AT123" s="2" t="s">
         <v>160</v>
@@ -15190,8 +15221,8 @@
         <v>43968</v>
       </c>
       <c r="AL125" s="57">
-        <f>(AK125-AJ125)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT125" s="2" t="s">
         <v>173</v>
@@ -15310,8 +15341,8 @@
         <v>43968</v>
       </c>
       <c r="AL126" s="57">
-        <f>(AK126-AJ126)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT126" s="2" t="s">
         <v>173</v>
@@ -15430,8 +15461,8 @@
         <v>43968</v>
       </c>
       <c r="AL127" s="57">
-        <f>(AK127-AJ127)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT127" s="2" t="s">
         <v>173</v>
@@ -15553,8 +15584,8 @@
         <v>43968</v>
       </c>
       <c r="AL128" s="57">
-        <f>(AK128-AJ128)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AS128" s="2" t="s">
         <v>350</v>
@@ -15673,8 +15704,8 @@
         <v>43968</v>
       </c>
       <c r="AL129" s="57">
-        <f>(AK129-AJ129)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AS129" s="27" t="s">
         <v>176</v>
@@ -15839,8 +15870,8 @@
         <v>43968</v>
       </c>
       <c r="AL131" s="57">
-        <f>(AK131-AJ131)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT131" s="2" t="s">
         <v>173</v>
@@ -15969,8 +16000,8 @@
         <v>43968</v>
       </c>
       <c r="AL132" s="57">
-        <f>(AK132-AJ132)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT132" s="2" t="s">
         <v>173</v>
@@ -16099,8 +16130,8 @@
         <v>43968</v>
       </c>
       <c r="AL133" s="57">
-        <f>(AK133-AJ133)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT133" s="2" t="s">
         <v>173</v>
@@ -16226,8 +16257,8 @@
         <v>43968</v>
       </c>
       <c r="AL134" s="57">
-        <f>(AK134-AJ134)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AT134" s="2" t="s">
         <v>173</v>
@@ -16350,8 +16381,8 @@
         <v>43968</v>
       </c>
       <c r="AL135" s="57">
-        <f>(AK135-AJ135)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AS135" s="2" t="s">
         <v>334</v>
@@ -16520,8 +16551,8 @@
         <v>43972</v>
       </c>
       <c r="AL137" s="57">
-        <f>(AK137-AJ137)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT137" s="2" t="s">
         <v>180</v>
@@ -16648,8 +16679,8 @@
         <v>43972</v>
       </c>
       <c r="AL138" s="57">
-        <f>(AK138-AJ138)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT138" s="2" t="s">
         <v>180</v>
@@ -16776,8 +16807,8 @@
         <v>43972</v>
       </c>
       <c r="AL139" s="57">
-        <f>(AK139-AJ139)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS139" s="27" t="s">
         <v>188</v>
@@ -16907,8 +16938,8 @@
         <v>43972</v>
       </c>
       <c r="AL140" s="57">
-        <f>(AK140-AJ140)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS140" s="2" t="s">
         <v>335</v>
@@ -17035,8 +17066,8 @@
         <v>43972</v>
       </c>
       <c r="AL141" s="57">
-        <f>(AK141-AJ141)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT141" s="2" t="s">
         <v>180</v>
@@ -17201,8 +17232,8 @@
         <v>43972</v>
       </c>
       <c r="AL143" s="57">
-        <f>(AK143-AJ143)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT143" s="2" t="s">
         <v>180</v>
@@ -17328,8 +17359,8 @@
         <v>43972</v>
       </c>
       <c r="AL144" s="57">
-        <f>(AK144-AJ144)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT144" s="2" t="s">
         <v>180</v>
@@ -17455,8 +17486,8 @@
         <v>43972</v>
       </c>
       <c r="AL145" s="57">
-        <f>(AK145-AJ145)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT145" s="2" t="s">
         <v>180</v>
@@ -17582,8 +17613,8 @@
         <v>43972</v>
       </c>
       <c r="AL146" s="57">
-        <f>(AK146-AJ146)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT146" s="2" t="s">
         <v>180</v>
@@ -17703,8 +17734,8 @@
         <v>43972</v>
       </c>
       <c r="AL147" s="57">
-        <f>(AK147-AJ147)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT147" s="2" t="s">
         <v>180</v>
@@ -17869,8 +17900,8 @@
         <v>43972</v>
       </c>
       <c r="AL149" s="57">
-        <f>(AK149-AJ149)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS149" s="2" t="s">
         <v>338</v>
@@ -17999,8 +18030,8 @@
         <v>43972</v>
       </c>
       <c r="AL150" s="57">
-        <f>(AK150-AJ150)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT150" s="2" t="s">
         <v>180</v>
@@ -18123,8 +18154,8 @@
         <v>43972</v>
       </c>
       <c r="AL151" s="57">
-        <f>(AK151-AJ151)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT151" s="2" t="s">
         <v>180</v>
@@ -18250,8 +18281,8 @@
         <v>43972</v>
       </c>
       <c r="AL152" s="57">
-        <f>(AK152-AJ152)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT152" s="2" t="s">
         <v>180</v>
@@ -18374,8 +18405,8 @@
         <v>43972</v>
       </c>
       <c r="AL153" s="57">
-        <f>(AK153-AJ153)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT153" s="2" t="s">
         <v>180</v>
@@ -18540,8 +18571,8 @@
         <v>43972</v>
       </c>
       <c r="AL155" s="57">
-        <f>(AK155-AJ155)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS155" s="2" t="s">
         <v>339</v>
@@ -18670,8 +18701,8 @@
         <v>43972</v>
       </c>
       <c r="AL156" s="57">
-        <f>(AK156-AJ156)</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT156" s="2" t="s">
         <v>180</v>
@@ -18797,8 +18828,8 @@
         <v>43972</v>
       </c>
       <c r="AL157" s="57">
-        <f>(AK157-AJ157)</f>
-        <v>100</v>
+        <f t="shared" ref="AL157:AL211" si="2">(AK157-AJ157)/7</f>
+        <v>14.285714285714286</v>
       </c>
       <c r="AT157" s="2" t="s">
         <v>180</v>
@@ -18924,8 +18955,8 @@
         <v>43972</v>
       </c>
       <c r="AL158" s="57">
-        <f>(AK158-AJ158)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS158" s="2" t="s">
         <v>336</v>
@@ -19050,8 +19081,8 @@
         <v>43972</v>
       </c>
       <c r="AL159" s="57">
-        <f>(AK159-AJ159)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="AS159" s="27" t="s">
         <v>307</v>
@@ -19203,8 +19234,8 @@
         <v>43976</v>
       </c>
       <c r="AL161" s="57">
-        <f>(AK161-AJ161)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AS161" s="20" t="s">
         <v>192</v>
@@ -19302,8 +19333,8 @@
         <v>43976</v>
       </c>
       <c r="AL162" s="57">
-        <f>(AK162-AJ162)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AS162" s="20" t="s">
         <v>192</v>
@@ -19398,8 +19429,8 @@
         <v>43976</v>
       </c>
       <c r="AL163" s="57">
-        <f>(AK163-AJ163)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AS163" s="2" t="s">
         <v>193</v>
@@ -19552,8 +19583,8 @@
         <v>43976</v>
       </c>
       <c r="AL165" s="57">
-        <f>(AK165-AJ165)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT165" s="2" t="s">
         <v>194</v>
@@ -19679,8 +19710,8 @@
         <v>43976</v>
       </c>
       <c r="AL166" s="57">
-        <f>(AK166-AJ166)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT166" s="2" t="s">
         <v>194</v>
@@ -19806,8 +19837,8 @@
         <v>43976</v>
       </c>
       <c r="AL167" s="57">
-        <f>(AK167-AJ167)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT167" s="2" t="s">
         <v>194</v>
@@ -19933,8 +19964,8 @@
         <v>43976</v>
       </c>
       <c r="AL168" s="57">
-        <f>(AK168-AJ168)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT168" s="2" t="s">
         <v>194</v>
@@ -20057,8 +20088,8 @@
         <v>43976</v>
       </c>
       <c r="AL169" s="57">
-        <f>(AK169-AJ169)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT169" s="2" t="s">
         <v>194</v>
@@ -20223,8 +20254,8 @@
         <v>43976</v>
       </c>
       <c r="AL171" s="57">
-        <f>(AK171-AJ171)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT171" s="2" t="s">
         <v>194</v>
@@ -20350,8 +20381,8 @@
         <v>43976</v>
       </c>
       <c r="AL172" s="57">
-        <f>(AK172-AJ172)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT172" s="2" t="s">
         <v>194</v>
@@ -20477,8 +20508,8 @@
         <v>43976</v>
       </c>
       <c r="AL173" s="57">
-        <f>(AK173-AJ173)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT173" s="2" t="s">
         <v>194</v>
@@ -20607,8 +20638,8 @@
         <v>43976</v>
       </c>
       <c r="AL174" s="57">
-        <f>(AK174-AJ174)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT174" s="2" t="s">
         <v>194</v>
@@ -20731,8 +20762,8 @@
         <v>43976</v>
       </c>
       <c r="AL175" s="57">
-        <f>(AK175-AJ175)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT175" s="2" t="s">
         <v>194</v>
@@ -20897,8 +20928,8 @@
         <v>43976</v>
       </c>
       <c r="AL177" s="57">
-        <f>(AK177-AJ177)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT177" s="2" t="s">
         <v>194</v>
@@ -21024,8 +21055,8 @@
         <v>43976</v>
       </c>
       <c r="AL178" s="57">
-        <f>(AK178-AJ178)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT178" s="2" t="s">
         <v>194</v>
@@ -21151,8 +21182,8 @@
         <v>43976</v>
       </c>
       <c r="AL179" s="57">
-        <f>(AK179-AJ179)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT179" s="2" t="s">
         <v>194</v>
@@ -21278,8 +21309,8 @@
         <v>43976</v>
       </c>
       <c r="AL180" s="57">
-        <f>(AK180-AJ180)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT180" s="2" t="s">
         <v>194</v>
@@ -21402,8 +21433,8 @@
         <v>43976</v>
       </c>
       <c r="AL181" s="57">
-        <f>(AK181-AJ181)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT181" s="2" t="s">
         <v>194</v>
@@ -21569,8 +21600,8 @@
         <v>43976</v>
       </c>
       <c r="AL183" s="57">
-        <f>(AK183-AJ183)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT183" s="2" t="s">
         <v>194</v>
@@ -21696,8 +21727,8 @@
         <v>43976</v>
       </c>
       <c r="AL184" s="57">
-        <f>(AK184-AJ184)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT184" s="2" t="s">
         <v>194</v>
@@ -21823,8 +21854,8 @@
         <v>43976</v>
       </c>
       <c r="AL185" s="57">
-        <f>(AK185-AJ185)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT185" s="2" t="s">
         <v>194</v>
@@ -21950,8 +21981,8 @@
         <v>43976</v>
       </c>
       <c r="AL186" s="57">
-        <f>(AK186-AJ186)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AT186" s="2" t="s">
         <v>194</v>
@@ -22074,8 +22105,8 @@
         <v>43976</v>
       </c>
       <c r="AL187" s="57">
-        <f>(AK187-AJ187)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="AS187" s="27" t="s">
         <v>198</v>
@@ -22241,8 +22272,8 @@
         <v>43982</v>
       </c>
       <c r="AL189" s="57">
-        <f>(AK189-AJ189)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AS189" s="2" t="s">
         <v>341</v>
@@ -22372,8 +22403,8 @@
         <v>43982</v>
       </c>
       <c r="AL190" s="57">
-        <f>(AK190-AJ190)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT190" s="2" t="s">
         <v>206</v>
@@ -22500,8 +22531,8 @@
         <v>43982</v>
       </c>
       <c r="AL191" s="57">
-        <f>(AK191-AJ191)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT191" s="2" t="s">
         <v>206</v>
@@ -22628,8 +22659,8 @@
         <v>43982</v>
       </c>
       <c r="AL192" s="57">
-        <f>(AK192-AJ192)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT192" s="2" t="s">
         <v>206</v>
@@ -22753,8 +22784,8 @@
         <v>43982</v>
       </c>
       <c r="AL193" s="57">
-        <f>(AK193-AJ193)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT193" s="2" t="s">
         <v>206</v>
@@ -22920,8 +22951,8 @@
         <v>43982</v>
       </c>
       <c r="AL195" s="57">
-        <f>(AK195-AJ195)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AS195" s="2" t="s">
         <v>340</v>
@@ -23054,8 +23085,8 @@
         <v>43982</v>
       </c>
       <c r="AL196" s="57">
-        <f>(AK196-AJ196)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT196" s="2" t="s">
         <v>206</v>
@@ -23185,8 +23216,8 @@
         <v>43982</v>
       </c>
       <c r="AL197" s="57">
-        <f>(AK197-AJ197)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT197" s="2" t="s">
         <v>206</v>
@@ -23313,8 +23344,8 @@
         <v>43982</v>
       </c>
       <c r="AL198" s="57">
-        <f>(AK198-AJ198)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT198" s="2" t="s">
         <v>206</v>
@@ -23438,8 +23469,8 @@
         <v>43982</v>
       </c>
       <c r="AL199" s="57">
-        <f>(AK199-AJ199)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT199" s="2" t="s">
         <v>206</v>
@@ -23608,8 +23639,8 @@
         <v>43982</v>
       </c>
       <c r="AL201" s="57">
-        <f>(AK201-AJ201)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AS201" s="2" t="s">
         <v>342</v>
@@ -23742,8 +23773,8 @@
         <v>43982</v>
       </c>
       <c r="AL202" s="57">
-        <f>(AK202-AJ202)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT202" s="2" t="s">
         <v>206</v>
@@ -23873,8 +23904,8 @@
         <v>43982</v>
       </c>
       <c r="AL203" s="57">
-        <f>(AK203-AJ203)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT203" s="2" t="s">
         <v>206</v>
@@ -24004,8 +24035,8 @@
         <v>43982</v>
       </c>
       <c r="AL204" s="57">
-        <f>(AK204-AJ204)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT204" s="2" t="s">
         <v>206</v>
@@ -24129,8 +24160,8 @@
         <v>43982</v>
       </c>
       <c r="AL205" s="57">
-        <f>(AK205-AJ205)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT205" s="2" t="s">
         <v>206</v>
@@ -24296,8 +24327,8 @@
         <v>43982</v>
       </c>
       <c r="AL207" s="57">
-        <f>(AK207-AJ207)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AS207" s="20" t="s">
         <v>108</v>
@@ -24424,8 +24455,8 @@
         <v>43982</v>
       </c>
       <c r="AL208" s="57">
-        <f>(AK208-AJ208)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AS208" s="20" t="s">
         <v>108</v>
@@ -24552,8 +24583,8 @@
         <v>43982</v>
       </c>
       <c r="AL209" s="57">
-        <f>(AK209-AJ209)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT209" s="2" t="s">
         <v>206</v>
@@ -24677,8 +24708,8 @@
         <v>43982</v>
       </c>
       <c r="AL210" s="57">
-        <f>(AK210-AJ210)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT210" s="2" t="s">
         <v>206</v>
@@ -24799,8 +24830,8 @@
         <v>43982</v>
       </c>
       <c r="AL211" s="57">
-        <f>(AK211-AJ211)</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="AT211" s="2" t="s">
         <v>206</v>
@@ -32453,7 +32484,7 @@
         <v>1</v>
       </c>
       <c r="M327" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N327" s="2">
         <v>5</v>
@@ -32497,7 +32528,9 @@
       <c r="AN327" s="2">
         <v>484</v>
       </c>
-      <c r="AS327" s="3"/>
+      <c r="AS327" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="AY327" s="3"/>
       <c r="BD327" s="2"/>
     </row>
@@ -32533,7 +32566,7 @@
         <v>1</v>
       </c>
       <c r="M328" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N328" s="2">
         <v>5</v>
@@ -32613,7 +32646,7 @@
         <v>1</v>
       </c>
       <c r="M329" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N329" s="2">
         <v>5</v>
@@ -33036,6 +33069,9 @@
       <c r="K336" s="5">
         <v>1</v>
       </c>
+      <c r="M336" s="2">
+        <v>1</v>
+      </c>
       <c r="N336" s="5">
         <v>5</v>
       </c>
@@ -33096,6 +33132,9 @@
       <c r="K337" s="5">
         <v>1</v>
       </c>
+      <c r="M337" s="2">
+        <v>0</v>
+      </c>
       <c r="N337" s="5">
         <v>5</v>
       </c>
@@ -33156,6 +33195,9 @@
       <c r="K338" s="5">
         <v>1</v>
       </c>
+      <c r="M338" s="2">
+        <v>1</v>
+      </c>
       <c r="N338" s="5">
         <v>5</v>
       </c>
@@ -33216,7 +33258,9 @@
       <c r="K339" s="5">
         <v>1</v>
       </c>
-      <c r="M339" s="5"/>
+      <c r="M339" s="5">
+        <v>1</v>
+      </c>
       <c r="N339" s="2">
         <v>5</v>
       </c>
@@ -33290,7 +33334,9 @@
       <c r="K340" s="2">
         <v>1</v>
       </c>
-      <c r="M340" s="5"/>
+      <c r="M340" s="5">
+        <v>1</v>
+      </c>
       <c r="N340" s="5">
         <v>5</v>
       </c>
@@ -33375,7 +33421,9 @@
       <c r="K342" s="5">
         <v>0</v>
       </c>
-      <c r="M342" s="5"/>
+      <c r="M342" s="5">
+        <v>0</v>
+      </c>
       <c r="N342" s="5">
         <v>5</v>
       </c>
@@ -33442,9 +33490,11 @@
         <v>2</v>
       </c>
       <c r="K343" s="5">
-        <v>1</v>
-      </c>
-      <c r="M343" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M343" s="5">
+        <v>0</v>
+      </c>
       <c r="N343" s="5">
         <v>5</v>
       </c>
@@ -33507,9 +33557,11 @@
         <v>2</v>
       </c>
       <c r="K344" s="5">
-        <v>1</v>
-      </c>
-      <c r="M344" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M344" s="5">
+        <v>0</v>
+      </c>
       <c r="N344" s="2">
         <v>5</v>
       </c>
@@ -33576,9 +33628,11 @@
         <v>2</v>
       </c>
       <c r="K345" s="5">
-        <v>1</v>
-      </c>
-      <c r="M345" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M345" s="5">
+        <v>0</v>
+      </c>
       <c r="N345" s="2">
         <v>5</v>
       </c>
@@ -33641,7 +33695,9 @@
       <c r="K346" s="5">
         <v>0</v>
       </c>
-      <c r="M346" s="5"/>
+      <c r="M346" s="5">
+        <v>0</v>
+      </c>
       <c r="N346" s="2">
         <v>5</v>
       </c>
@@ -33722,6 +33778,9 @@
       <c r="K348" s="5">
         <v>0</v>
       </c>
+      <c r="M348" s="2">
+        <v>0</v>
+      </c>
       <c r="N348" s="5">
         <v>5</v>
       </c>
@@ -33741,10 +33800,7 @@
         <v>1</v>
       </c>
       <c r="Y348" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z348" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC348" s="2" t="s">
         <v>26</v>
@@ -33760,6 +33816,12 @@
       </c>
       <c r="AI348" s="2">
         <v>511</v>
+      </c>
+      <c r="AJ348" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK348" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="AL348" s="57"/>
       <c r="AS348" s="2" t="s">
@@ -33800,6 +33862,9 @@
       <c r="K349" s="5">
         <v>0</v>
       </c>
+      <c r="M349" s="2">
+        <v>0</v>
+      </c>
       <c r="N349" s="5">
         <v>5</v>
       </c>
@@ -33819,10 +33884,7 @@
         <v>1</v>
       </c>
       <c r="Y349" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z349" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC349" s="2" t="s">
         <v>26</v>
@@ -33838,6 +33900,12 @@
       </c>
       <c r="AI349" s="2">
         <v>511</v>
+      </c>
+      <c r="AJ349" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK349" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="AL349" s="57"/>
     </row>
@@ -33875,6 +33943,9 @@
       <c r="K350" s="5">
         <v>0</v>
       </c>
+      <c r="M350" s="2">
+        <v>0</v>
+      </c>
       <c r="N350" s="5">
         <v>5</v>
       </c>
@@ -33894,10 +33965,7 @@
         <v>1</v>
       </c>
       <c r="Y350" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z350" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC350" s="2" t="s">
         <v>26</v>
@@ -33913,6 +33981,12 @@
       </c>
       <c r="AI350" s="2">
         <v>511</v>
+      </c>
+      <c r="AJ350" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK350" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="AL350" s="57"/>
     </row>
@@ -33950,6 +34024,9 @@
       <c r="K351" s="5">
         <v>0</v>
       </c>
+      <c r="M351" s="2">
+        <v>0</v>
+      </c>
       <c r="N351" s="5">
         <v>5</v>
       </c>
@@ -33969,10 +34046,7 @@
         <v>1</v>
       </c>
       <c r="Y351" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z351" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC351" s="2" t="s">
         <v>26</v>
@@ -33988,6 +34062,12 @@
       </c>
       <c r="AI351" s="2">
         <v>511</v>
+      </c>
+      <c r="AJ351" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK351" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="AL351" s="57"/>
     </row>
@@ -34000,7 +34080,7 @@
       </c>
       <c r="AL352" s="57"/>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -34017,7 +34097,7 @@
         <v>5</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G353" s="5" t="s">
         <v>8</v>
@@ -34034,6 +34114,9 @@
       <c r="K353" s="5">
         <v>1</v>
       </c>
+      <c r="M353" s="2">
+        <v>1</v>
+      </c>
       <c r="N353" s="5">
         <v>5</v>
       </c>
@@ -34044,7 +34127,7 @@
         <v>1</v>
       </c>
       <c r="S353" s="5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V353" s="5">
         <v>1</v>
@@ -34053,10 +34136,7 @@
         <v>5</v>
       </c>
       <c r="Y353" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z353" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC353" s="2" t="s">
         <v>26</v>
@@ -34073,9 +34153,15 @@
       <c r="AI353" s="2">
         <v>511</v>
       </c>
+      <c r="AJ353" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK353" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AL353" s="57"/>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -34092,7 +34178,7 @@
         <v>6</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>8</v>
@@ -34109,6 +34195,9 @@
       <c r="K354" s="5">
         <v>1</v>
       </c>
+      <c r="M354" s="2">
+        <v>1</v>
+      </c>
       <c r="N354" s="5">
         <v>5</v>
       </c>
@@ -34119,7 +34208,7 @@
         <v>1</v>
       </c>
       <c r="S354" s="5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V354" s="5">
         <v>1</v>
@@ -34128,10 +34217,7 @@
         <v>5</v>
       </c>
       <c r="Y354" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z354" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC354" s="2" t="s">
         <v>26</v>
@@ -34148,9 +34234,15 @@
       <c r="AI354" s="2">
         <v>511</v>
       </c>
+      <c r="AJ354" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK354" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AL354" s="57"/>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -34184,6 +34276,9 @@
       <c r="K355" s="5">
         <v>1</v>
       </c>
+      <c r="M355" s="2">
+        <v>1</v>
+      </c>
       <c r="N355" s="5">
         <v>5</v>
       </c>
@@ -34194,7 +34289,7 @@
         <v>1</v>
       </c>
       <c r="S355" s="5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V355" s="5">
         <v>1</v>
@@ -34203,10 +34298,7 @@
         <v>5</v>
       </c>
       <c r="Y355" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z355" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC355" s="2" t="s">
         <v>26</v>
@@ -34223,9 +34315,15 @@
       <c r="AI355" s="2">
         <v>511</v>
       </c>
+      <c r="AJ355" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK355" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AL355" s="57"/>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -34259,6 +34357,9 @@
       <c r="K356" s="5">
         <v>1</v>
       </c>
+      <c r="M356" s="2">
+        <v>1</v>
+      </c>
       <c r="N356" s="5">
         <v>5</v>
       </c>
@@ -34269,7 +34370,7 @@
         <v>1</v>
       </c>
       <c r="S356" s="5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V356" s="5">
         <v>1</v>
@@ -34278,10 +34379,7 @@
         <v>5</v>
       </c>
       <c r="Y356" s="5">
-        <v>3456</v>
-      </c>
-      <c r="Z356" s="5">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="AC356" s="2" t="s">
         <v>26</v>
@@ -34298,69 +34396,792 @@
       <c r="AI356" s="2">
         <v>511</v>
       </c>
+      <c r="AJ356" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK356" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AL356" s="57"/>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
+      <c r="H357" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="AL357" s="57"/>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
+      <c r="B358" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E358" s="2">
+        <v>1</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J358" s="5">
+        <v>1</v>
+      </c>
+      <c r="K358" s="5">
+        <v>1</v>
+      </c>
+      <c r="M358" s="2">
+        <v>1</v>
+      </c>
+      <c r="N358" s="5">
+        <v>5</v>
+      </c>
+      <c r="O358" s="5">
+        <v>1</v>
+      </c>
+      <c r="R358" s="5">
+        <v>1</v>
+      </c>
+      <c r="S358" s="5">
+        <v>3</v>
+      </c>
+      <c r="V358" s="5">
+        <v>1</v>
+      </c>
+      <c r="W358" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y358" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC358" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG358" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH358" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI358" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ358" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK358" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="AL358" s="57"/>
-    </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS358" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="359" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
+      <c r="B359" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E359" s="2">
+        <v>2</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H359" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J359" s="5">
+        <v>1</v>
+      </c>
+      <c r="K359" s="5">
+        <v>1</v>
+      </c>
+      <c r="M359" s="2">
+        <v>1</v>
+      </c>
+      <c r="N359" s="5">
+        <v>5</v>
+      </c>
+      <c r="O359" s="5">
+        <v>1</v>
+      </c>
+      <c r="R359" s="5">
+        <v>1</v>
+      </c>
+      <c r="S359" s="5">
+        <v>3</v>
+      </c>
+      <c r="V359" s="5">
+        <v>1</v>
+      </c>
+      <c r="W359" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y359" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC359" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG359" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH359" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI359" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ359" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK359" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="AL359" s="57"/>
-    </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS359" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="360" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
+      <c r="B360" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E360" s="2">
+        <v>3</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J360" s="5">
+        <v>1</v>
+      </c>
+      <c r="K360" s="5">
+        <v>1</v>
+      </c>
+      <c r="M360" s="2">
+        <v>1</v>
+      </c>
+      <c r="N360" s="5">
+        <v>5</v>
+      </c>
+      <c r="O360" s="5">
+        <v>1</v>
+      </c>
+      <c r="R360" s="5">
+        <v>1</v>
+      </c>
+      <c r="S360" s="5">
+        <v>3</v>
+      </c>
+      <c r="V360" s="5">
+        <v>1</v>
+      </c>
+      <c r="W360" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y360" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC360" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG360" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH360" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI360" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ360" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK360" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="AL360" s="57"/>
-    </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS360" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="361" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
+      <c r="B361" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E361" s="2">
+        <v>4</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J361" s="5">
+        <v>1</v>
+      </c>
+      <c r="K361" s="5">
+        <v>1</v>
+      </c>
+      <c r="M361" s="2">
+        <v>1</v>
+      </c>
+      <c r="N361" s="5">
+        <v>5</v>
+      </c>
+      <c r="O361" s="5">
+        <v>1</v>
+      </c>
+      <c r="R361" s="5">
+        <v>1</v>
+      </c>
+      <c r="S361" s="5">
+        <v>3</v>
+      </c>
+      <c r="V361" s="5">
+        <v>1</v>
+      </c>
+      <c r="W361" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y361" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC361" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG361" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH361" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI361" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ361" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK361" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="AL361" s="57"/>
-    </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS361" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="362" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
+      <c r="H362" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="AL362" s="57"/>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
+      <c r="B363" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E363" s="2">
+        <v>1</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J363" s="5">
+        <v>1</v>
+      </c>
+      <c r="K363" s="5">
+        <v>1</v>
+      </c>
+      <c r="M363" s="2">
+        <v>1</v>
+      </c>
+      <c r="N363" s="5">
+        <v>5</v>
+      </c>
+      <c r="O363" s="5">
+        <v>1</v>
+      </c>
+      <c r="R363" s="5">
+        <v>1</v>
+      </c>
+      <c r="S363" s="5">
+        <v>3</v>
+      </c>
+      <c r="V363" s="5">
+        <v>1</v>
+      </c>
+      <c r="W363" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y363" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC363" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG363" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH363" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI363" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ363" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK363" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="AL363" s="57"/>
-    </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS363" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="364" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
+      <c r="B364" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E364" s="2">
+        <v>2</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J364" s="5">
+        <v>1</v>
+      </c>
+      <c r="K364" s="5">
+        <v>1</v>
+      </c>
+      <c r="M364" s="2">
+        <v>1</v>
+      </c>
+      <c r="N364" s="5">
+        <v>5</v>
+      </c>
+      <c r="O364" s="5">
+        <v>1</v>
+      </c>
+      <c r="R364" s="5">
+        <v>1</v>
+      </c>
+      <c r="S364" s="5">
+        <v>3</v>
+      </c>
+      <c r="V364" s="5">
+        <v>1</v>
+      </c>
+      <c r="W364" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y364" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC364" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG364" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH364" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI364" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ364" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK364" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="AL364" s="57"/>
-    </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS364" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="365" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
+      <c r="B365" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E365" s="2">
+        <v>3</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J365" s="5">
+        <v>1</v>
+      </c>
+      <c r="K365" s="5">
+        <v>1</v>
+      </c>
+      <c r="M365" s="2">
+        <v>1</v>
+      </c>
+      <c r="N365" s="5">
+        <v>5</v>
+      </c>
+      <c r="O365" s="5">
+        <v>1</v>
+      </c>
+      <c r="R365" s="5">
+        <v>1</v>
+      </c>
+      <c r="S365" s="5">
+        <v>3</v>
+      </c>
+      <c r="V365" s="5">
+        <v>1</v>
+      </c>
+      <c r="W365" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y365" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC365" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG365" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH365" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI365" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ365" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK365" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="AL365" s="57"/>
-    </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS365" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="366" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E366" s="2">
+        <v>4</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J366" s="5">
+        <v>1</v>
+      </c>
+      <c r="K366" s="5">
+        <v>1</v>
+      </c>
+      <c r="M366" s="2">
+        <v>1</v>
+      </c>
+      <c r="N366" s="5">
+        <v>5</v>
+      </c>
+      <c r="O366" s="5">
+        <v>1</v>
+      </c>
+      <c r="R366" s="5">
+        <v>1</v>
+      </c>
+      <c r="S366" s="5">
+        <v>3</v>
+      </c>
+      <c r="V366" s="5">
+        <v>1</v>
+      </c>
+      <c r="W366" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y366" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC366" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG366" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH366" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI366" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ366" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK366" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="AL366" s="57"/>
-    </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS366" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="367" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E367" s="2">
+        <v>5</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J367" s="5">
+        <v>1</v>
+      </c>
+      <c r="K367" s="5">
+        <v>1</v>
+      </c>
+      <c r="M367" s="2">
+        <v>1</v>
+      </c>
+      <c r="N367" s="5">
+        <v>5</v>
+      </c>
+      <c r="O367" s="5">
+        <v>1</v>
+      </c>
+      <c r="R367" s="5">
+        <v>1</v>
+      </c>
+      <c r="S367" s="5">
+        <v>3</v>
+      </c>
+      <c r="V367" s="5">
+        <v>1</v>
+      </c>
+      <c r="W367" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y367" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AC367" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG367" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH367" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI367" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ367" s="8">
+        <v>45446</v>
+      </c>
+      <c r="AK367" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="AL367" s="57"/>
-    </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AS367" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="368" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
       <c r="AL368" s="57"/>
     </row>
     <row r="369" spans="38:38" x14ac:dyDescent="0.25">
